--- a/2.Data/EnvironmentalData.xlsx
+++ b/2.Data/EnvironmentalData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/evert_sprockel_wur_nl/Documents/5.Wageningen/7.Thesis/7.DataAnalysis/ThesisRAnalysis/2.Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="11_38AE230EADFB0BBDC981F51D93740FD6917D560E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6BF7E8B-0F66-4AE2-B584-469E85DA525A}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="11_38AE230EADFB0BBDC981F51D93740FD6917D560E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{324A90DD-9D0D-4C07-A165-4ADAD1BD0711}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="247">
   <si>
     <t>Name</t>
   </si>
@@ -769,6 +769,15 @@
   </si>
   <si>
     <t>Lightness of the soil, extracted from the munsell code</t>
+  </si>
+  <si>
+    <t>DirectSunlight</t>
+  </si>
+  <si>
+    <t>HighContrast</t>
+  </si>
+  <si>
+    <t>Contrast</t>
   </si>
 </sst>
 </file>
@@ -878,7 +887,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1093,11 +1123,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1003"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1106,27 +1138,30 @@
     <col min="2" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="81.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="14.42578125" style="2"/>
+    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="81.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,55 +1184,64 @@
         <v>201</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1220,55 +1264,64 @@
         <v>0.39604699999999998</v>
       </c>
       <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>58.274317010631329</v>
+      </c>
+      <c r="K2" s="2">
         <v>21.5</v>
       </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
         <v>76.2</v>
       </c>
-      <c r="K2" s="2">
+      <c r="N2" s="2">
         <v>7.52</v>
       </c>
-      <c r="L2" s="2">
+      <c r="O2" s="2">
         <v>490</v>
       </c>
-      <c r="M2" s="2">
+      <c r="P2" s="2">
         <v>4214</v>
       </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
         <v>2.9</v>
       </c>
-      <c r="P2" s="12">
+      <c r="S2" s="12">
         <v>0.32</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="T2" s="2">
         <v>4</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="2">
+      <c r="X2" s="2">
         <v>1</v>
       </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1291,52 +1344,61 @@
         <v>0.40558159999999999</v>
       </c>
       <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>51.196454554289879</v>
+      </c>
+      <c r="K3" s="2">
         <v>12.2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="L3" s="2">
         <v>37.5</v>
       </c>
-      <c r="J3" s="2">
+      <c r="M3" s="2">
         <v>51</v>
       </c>
-      <c r="K3" s="2">
+      <c r="N3" s="2">
         <v>8.14</v>
       </c>
-      <c r="L3" s="2">
+      <c r="O3" s="2">
         <v>415.8</v>
       </c>
-      <c r="M3" s="2">
+      <c r="P3" s="2">
         <v>3950.1</v>
       </c>
-      <c r="N3" s="2">
+      <c r="Q3" s="2">
         <v>0.60000000000000053</v>
       </c>
-      <c r="O3" s="2">
+      <c r="R3" s="2">
         <v>2.8</v>
       </c>
-      <c r="P3" s="12">
+      <c r="S3" s="12">
         <v>0.33500000000000002</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="T3" s="2">
         <v>3</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1359,52 +1421,61 @@
         <v>0.36427999999999999</v>
       </c>
       <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>42.78902639215044</v>
+      </c>
+      <c r="K4" s="2">
         <v>14</v>
       </c>
-      <c r="I4" s="2">
+      <c r="L4" s="2">
         <v>11.6</v>
       </c>
-      <c r="J4" s="2">
+      <c r="M4" s="2">
         <v>63.67</v>
       </c>
-      <c r="K4" s="2">
+      <c r="N4" s="2">
         <v>9.0399999999999991</v>
       </c>
-      <c r="L4" s="2">
+      <c r="O4" s="2">
         <v>796.6</v>
       </c>
-      <c r="M4" s="2">
+      <c r="P4" s="2">
         <v>7567.7</v>
       </c>
-      <c r="N4" s="2">
+      <c r="Q4" s="2">
         <v>0.20000000000000021</v>
       </c>
-      <c r="O4" s="2">
+      <c r="R4" s="2">
         <v>1.7</v>
       </c>
-      <c r="P4" s="12">
+      <c r="S4" s="12">
         <v>0.36299999999999999</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="T4" s="2">
         <v>5</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1427,52 +1498,61 @@
         <v>0.36745040000000001</v>
       </c>
       <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>41.050289623801063</v>
+      </c>
+      <c r="K5" s="2">
         <v>12.5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="L5" s="2">
         <v>23.2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="M5" s="2">
         <v>53.93</v>
       </c>
-      <c r="K5" s="2">
+      <c r="N5" s="2">
         <v>9.14</v>
       </c>
-      <c r="L5" s="2">
+      <c r="O5" s="2">
         <v>585.1</v>
       </c>
-      <c r="M5" s="2">
+      <c r="P5" s="2">
         <v>5031.8599999999997</v>
       </c>
-      <c r="N5" s="2">
+      <c r="Q5" s="2">
         <v>0.29999999999999982</v>
       </c>
-      <c r="O5" s="2">
+      <c r="R5" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P5" s="12">
+      <c r="S5" s="12">
         <v>0.91700000000000004</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="T5" s="2">
         <v>5</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1495,55 +1575,64 @@
         <v>0.3773705</v>
       </c>
       <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>47.048358632361271</v>
+      </c>
+      <c r="K6" s="2">
         <v>11.9</v>
       </c>
-      <c r="I6" s="2">
+      <c r="L6" s="2">
         <v>43</v>
       </c>
-      <c r="J6" s="2">
+      <c r="M6" s="2">
         <v>55.03</v>
       </c>
-      <c r="K6" s="2">
+      <c r="N6" s="2">
         <v>8.8800000000000008</v>
       </c>
-      <c r="L6" s="2">
+      <c r="O6" s="2">
         <v>4190</v>
       </c>
-      <c r="M6" s="2">
+      <c r="P6" s="2">
         <v>36034</v>
       </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
         <v>1.6</v>
       </c>
-      <c r="P6" s="12">
+      <c r="S6" s="12">
         <v>0.59099999999999997</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="T6" s="2">
         <v>3</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="2">
+      <c r="X6" s="2">
         <v>1</v>
       </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2" t="s">
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1566,55 +1655,64 @@
         <v>0.40227859999999999</v>
       </c>
       <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>51.639750903747512</v>
+      </c>
+      <c r="K7" s="2">
         <v>15.8</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>5.5</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>83.77</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>6.83</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>480.3</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>4130.58</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>2.8</v>
       </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
         <v>0.14299999999999999</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>3</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2" t="s">
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1637,52 +1735,61 @@
         <v>0.38960410000000001</v>
       </c>
       <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>47.398677250006152</v>
+      </c>
+      <c r="K8" s="2">
         <v>16.899999999999999</v>
       </c>
-      <c r="I8" s="2">
+      <c r="L8" s="2">
         <v>129</v>
       </c>
-      <c r="J8" s="2">
+      <c r="M8" s="2">
         <v>58.13</v>
       </c>
-      <c r="K8" s="2">
+      <c r="N8" s="2">
         <v>8.08</v>
       </c>
-      <c r="L8" s="2">
+      <c r="O8" s="2">
         <v>646</v>
       </c>
-      <c r="M8" s="2">
+      <c r="P8" s="2">
         <v>5555.5999999999995</v>
       </c>
-      <c r="N8" s="2">
+      <c r="Q8" s="2">
         <v>0.5</v>
       </c>
-      <c r="O8" s="2">
+      <c r="R8" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P8" s="12">
+      <c r="S8" s="12">
         <v>0.61099999999999999</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="T8" s="2">
         <v>6</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1705,55 +1812,64 @@
         <v>0.41328939999999997</v>
       </c>
       <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>42.443928329117732</v>
+      </c>
+      <c r="K9" s="2">
         <v>20.100000000000001</v>
       </c>
-      <c r="I9" s="2">
+      <c r="L9" s="2">
         <v>8</v>
       </c>
-      <c r="J9" s="2">
+      <c r="M9" s="2">
         <v>72.930000000000007</v>
       </c>
-      <c r="K9" s="2">
+      <c r="N9" s="2">
         <v>7.55</v>
       </c>
-      <c r="L9" s="2">
+      <c r="O9" s="2">
         <v>601.4</v>
       </c>
-      <c r="M9" s="2">
+      <c r="P9" s="2">
         <v>5172.04</v>
       </c>
-      <c r="N9" s="2">
+      <c r="Q9" s="2">
         <v>1.3</v>
       </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12">
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
         <v>0.39200000000000002</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="T9" s="2">
         <v>4</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2" t="s">
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1776,55 +1892,64 @@
         <v>0.40672000000000003</v>
       </c>
       <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>42.452394297771001</v>
+      </c>
+      <c r="K10" s="2">
         <v>18.3</v>
       </c>
-      <c r="I10" s="2">
+      <c r="L10" s="2">
         <v>2.5</v>
       </c>
-      <c r="J10" s="2">
+      <c r="M10" s="2">
         <v>84.27</v>
       </c>
-      <c r="K10" s="2">
+      <c r="N10" s="2">
         <v>7.29</v>
       </c>
-      <c r="L10" s="2">
+      <c r="O10" s="2">
         <v>274</v>
       </c>
-      <c r="M10" s="2">
+      <c r="P10" s="2">
         <v>2356.4</v>
       </c>
-      <c r="N10" s="2">
+      <c r="Q10" s="2">
         <v>1.600000000000001</v>
       </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="12">
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
         <v>0.20599999999999999</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="T10" s="2">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2" t="s">
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1847,52 +1972,61 @@
         <v>0.43063020000000002</v>
       </c>
       <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>40.214391801706803</v>
+      </c>
+      <c r="K11" s="2">
         <v>15.3</v>
       </c>
-      <c r="I11" s="2">
+      <c r="L11" s="2">
         <v>14</v>
       </c>
-      <c r="J11" s="2">
+      <c r="M11" s="2">
         <v>61.57</v>
       </c>
-      <c r="K11" s="2">
+      <c r="N11" s="2">
         <v>7.14</v>
       </c>
-      <c r="L11" s="2">
+      <c r="O11" s="2">
         <v>495.4</v>
       </c>
-      <c r="M11" s="2">
+      <c r="P11" s="2">
         <v>4260.4399999999996</v>
       </c>
-      <c r="N11" s="2">
+      <c r="Q11" s="2">
         <v>1.3</v>
       </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="12">
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
         <v>0.21199999999999999</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="T11" s="2">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>40</v>
       </c>
@@ -1915,44 +2049,53 @@
         <v>0.38740849999999999</v>
       </c>
       <c r="H12" s="13">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>47.778618199832238</v>
+      </c>
+      <c r="K12" s="13">
         <v>21.5</v>
       </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
         <v>94.8</v>
       </c>
-      <c r="N12" s="13">
+      <c r="Q12" s="13">
         <v>0.10000000000000051</v>
       </c>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="13">
+      <c r="R12" s="13">
+        <v>0</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="13">
         <v>2</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="U12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="V12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="W12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="U12" s="13">
-        <v>0</v>
-      </c>
-      <c r="V12" s="13">
-        <v>0</v>
-      </c>
-      <c r="W12" s="13" t="s">
+      <c r="X12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1975,55 +2118,64 @@
         <v>0.42375049999999997</v>
       </c>
       <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>44.096668115777199</v>
+      </c>
+      <c r="K13" s="2">
         <v>11.3</v>
       </c>
-      <c r="I13" s="2">
+      <c r="L13" s="2">
         <v>11</v>
       </c>
-      <c r="J13" s="2">
+      <c r="M13" s="2">
         <v>70</v>
       </c>
-      <c r="K13" s="2">
+      <c r="N13" s="2">
         <v>7.72</v>
       </c>
-      <c r="L13" s="2">
+      <c r="O13" s="2">
         <v>516.9</v>
       </c>
-      <c r="M13" s="2">
+      <c r="P13" s="2">
         <v>4445.3399999999992</v>
       </c>
-      <c r="N13" s="2">
+      <c r="Q13" s="2">
         <v>2.4</v>
       </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="12">
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
         <v>0.25900000000000001</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="T13" s="2">
         <v>3</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="W13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2046,52 +2198,61 @@
         <v>0.3702259</v>
       </c>
       <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>57.354910227951613</v>
+      </c>
+      <c r="K14" s="2">
         <v>16.8</v>
       </c>
-      <c r="I14" s="2">
+      <c r="L14" s="2">
         <v>97</v>
       </c>
-      <c r="J14" s="2">
+      <c r="M14" s="2">
         <v>39.270000000000003</v>
       </c>
-      <c r="K14" s="2">
+      <c r="N14" s="2">
         <v>8.92</v>
       </c>
-      <c r="L14" s="2">
+      <c r="O14" s="2">
         <v>1736</v>
       </c>
-      <c r="M14" s="2">
+      <c r="P14" s="2">
         <v>16492</v>
       </c>
-      <c r="N14" s="2">
+      <c r="Q14" s="2">
         <v>0.20000000000000021</v>
       </c>
-      <c r="O14" s="2">
+      <c r="R14" s="2">
         <v>4.3000000000000007</v>
       </c>
-      <c r="P14" s="12">
+      <c r="S14" s="12">
         <v>0.67</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="T14" s="2">
         <v>5</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -2114,55 +2275,64 @@
         <v>0.37492959999999997</v>
       </c>
       <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>49.463946935044397</v>
+      </c>
+      <c r="K15" s="2">
         <v>9.5</v>
       </c>
-      <c r="I15" s="2">
+      <c r="L15" s="2">
         <v>17</v>
       </c>
-      <c r="J15" s="2">
+      <c r="M15" s="2">
         <v>62.87</v>
       </c>
-      <c r="K15" s="2">
+      <c r="N15" s="2">
         <v>8.18</v>
       </c>
-      <c r="L15" s="2">
+      <c r="O15" s="2">
         <v>496.8</v>
       </c>
-      <c r="M15" s="2">
+      <c r="P15" s="2">
         <v>4719.6000000000004</v>
       </c>
-      <c r="N15" s="2">
+      <c r="Q15" s="2">
         <v>1.4</v>
       </c>
-      <c r="O15" s="2">
+      <c r="R15" s="2">
         <v>1.9</v>
       </c>
-      <c r="P15" s="12">
+      <c r="S15" s="12">
         <v>0.42699999999999999</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="T15" s="2">
         <v>5</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="W15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2" t="s">
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -2185,52 +2355,61 @@
         <v>0.43703500000000001</v>
       </c>
       <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>53.296615924852283</v>
+      </c>
+      <c r="K16" s="2">
         <v>26.5</v>
       </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <v>100</v>
       </c>
-      <c r="K16" s="2">
+      <c r="N16" s="2">
         <v>7.13</v>
       </c>
-      <c r="L16" s="2">
+      <c r="O16" s="2">
         <v>441.5</v>
       </c>
-      <c r="M16" s="2">
+      <c r="P16" s="2">
         <v>3796.9</v>
       </c>
-      <c r="N16" s="2">
+      <c r="Q16" s="2">
         <v>1.5</v>
       </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="12">
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="12">
         <v>0.2</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="T16" s="2">
         <v>3</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="V16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="W16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -2253,52 +2432,61 @@
         <v>0.42565360000000002</v>
       </c>
       <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>46.503714803258752</v>
+      </c>
+      <c r="K17" s="2">
         <v>18.8</v>
       </c>
-      <c r="I17" s="2">
+      <c r="L17" s="2">
         <v>3</v>
       </c>
-      <c r="J17" s="2">
+      <c r="M17" s="2">
         <v>94.6</v>
       </c>
-      <c r="K17" s="2">
+      <c r="N17" s="2">
         <v>7.05</v>
       </c>
-      <c r="L17" s="2">
+      <c r="O17" s="2">
         <v>384.3</v>
       </c>
-      <c r="M17" s="2">
+      <c r="P17" s="2">
         <v>3304.98</v>
       </c>
-      <c r="N17" s="2">
+      <c r="Q17" s="2">
         <v>0.60000000000000053</v>
       </c>
-      <c r="O17" s="2">
+      <c r="R17" s="2">
         <v>0.80000000000000027</v>
       </c>
-      <c r="P17" s="12">
+      <c r="S17" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="T17" s="2">
         <v>3</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="V17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="W17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2321,55 +2509,64 @@
         <v>0.38445580000000001</v>
       </c>
       <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>49.688221248852308</v>
+      </c>
+      <c r="K18" s="2">
         <v>11.5</v>
       </c>
-      <c r="I18" s="2">
+      <c r="L18" s="2">
         <v>31</v>
       </c>
-      <c r="J18" s="2">
+      <c r="M18" s="2">
         <v>44.1</v>
       </c>
-      <c r="K18" s="2">
+      <c r="N18" s="2">
         <v>8.0500000000000007</v>
       </c>
-      <c r="L18" s="2">
+      <c r="O18" s="2">
         <v>385.6</v>
       </c>
-      <c r="M18" s="2">
+      <c r="P18" s="2">
         <v>3316.16</v>
       </c>
-      <c r="N18" s="2">
+      <c r="Q18" s="2">
         <v>0.10000000000000051</v>
       </c>
-      <c r="O18" s="2">
+      <c r="R18" s="2">
         <v>3.6</v>
       </c>
-      <c r="P18" s="12">
+      <c r="S18" s="12">
         <v>0.60799999999999998</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="T18" s="2">
         <v>4</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="V18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="W18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
         <v>1</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2392,52 +2589,61 @@
         <v>0.36557879999999998</v>
       </c>
       <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>49.008525961845287</v>
+      </c>
+      <c r="K19" s="2">
         <v>11.7</v>
       </c>
-      <c r="I19" s="2">
+      <c r="L19" s="2">
         <v>17</v>
       </c>
-      <c r="J19" s="2">
+      <c r="M19" s="2">
         <v>45.37</v>
       </c>
-      <c r="K19" s="2">
+      <c r="N19" s="2">
         <v>7.78</v>
       </c>
-      <c r="L19" s="2">
+      <c r="O19" s="2">
         <v>707.3</v>
       </c>
-      <c r="M19" s="2">
+      <c r="P19" s="2">
         <v>6082.78</v>
       </c>
-      <c r="N19" s="2">
+      <c r="Q19" s="2">
         <v>0.20000000000000021</v>
       </c>
-      <c r="O19" s="2">
+      <c r="R19" s="2">
         <v>5</v>
       </c>
-      <c r="P19" s="12">
+      <c r="S19" s="12">
         <v>0.52200000000000002</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="T19" s="2">
         <v>4</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="V19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="W19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -2460,52 +2666,61 @@
         <v>0.4592444</v>
       </c>
       <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>38.627177949441403</v>
+      </c>
+      <c r="K20" s="2">
         <v>18.3</v>
       </c>
-      <c r="I20" s="2">
+      <c r="L20" s="2">
         <v>37</v>
       </c>
-      <c r="J20" s="2">
+      <c r="M20" s="2">
         <v>67.83</v>
       </c>
-      <c r="K20" s="2">
+      <c r="N20" s="2">
         <v>7.28</v>
       </c>
-      <c r="L20" s="2">
+      <c r="O20" s="2">
         <v>405.3</v>
       </c>
-      <c r="M20" s="2">
+      <c r="P20" s="2">
         <v>3485.58</v>
       </c>
-      <c r="N20" s="2">
+      <c r="Q20" s="2">
         <v>1.9</v>
       </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="12">
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="12">
         <v>0.245</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="T20" s="2">
         <v>5</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="U20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="V20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="W20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -2528,52 +2743,61 @@
         <v>0.43910270000000001</v>
       </c>
       <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>29.30998697267831</v>
+      </c>
+      <c r="K21" s="2">
         <v>13.9</v>
       </c>
-      <c r="I21" s="2">
+      <c r="L21" s="2">
         <v>14</v>
       </c>
-      <c r="J21" s="2">
+      <c r="M21" s="2">
         <v>72.5</v>
       </c>
-      <c r="K21" s="2">
+      <c r="N21" s="2">
         <v>7.5</v>
       </c>
-      <c r="L21" s="2">
+      <c r="O21" s="2">
         <v>549</v>
       </c>
-      <c r="M21" s="2">
+      <c r="P21" s="2">
         <v>5215.5</v>
       </c>
-      <c r="N21" s="2">
+      <c r="Q21" s="2">
         <v>1.5</v>
       </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="12">
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="12">
         <v>0.29499999999999998</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="T21" s="2">
         <v>5</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="U21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="V21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="W21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -2596,55 +2820,64 @@
         <v>0.37114009999999997</v>
       </c>
       <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>44.408718198693663</v>
+      </c>
+      <c r="K22" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I22" s="2">
+      <c r="L22" s="2">
         <v>8</v>
       </c>
-      <c r="J22" s="2">
+      <c r="M22" s="2">
         <v>78.33</v>
       </c>
-      <c r="K22" s="2">
+      <c r="N22" s="2">
         <v>7.29</v>
       </c>
-      <c r="L22" s="2">
+      <c r="O22" s="2">
         <v>700.7</v>
       </c>
-      <c r="M22" s="2">
+      <c r="P22" s="2">
         <v>6026.02</v>
       </c>
-      <c r="N22" s="2">
+      <c r="Q22" s="2">
         <v>2.600000000000001</v>
       </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="12">
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="12">
         <v>0.254</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="T22" s="2">
         <v>5</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="U22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="V22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="W22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2" t="s">
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -2667,55 +2900,64 @@
         <v>0.4147885</v>
       </c>
       <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>40.872977012602973</v>
+      </c>
+      <c r="K23" s="2">
         <v>27.7</v>
       </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
         <v>100</v>
       </c>
-      <c r="K23" s="2">
+      <c r="N23" s="2">
         <v>6.83</v>
       </c>
-      <c r="L23" s="2">
+      <c r="O23" s="2">
         <v>444.4</v>
       </c>
-      <c r="M23" s="2">
+      <c r="P23" s="2">
         <v>3821.84</v>
       </c>
-      <c r="N23" s="2">
+      <c r="Q23" s="2">
         <v>8.5</v>
       </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="12">
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="12">
         <v>0.10199999999999999</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="T23" s="2">
         <v>5</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="U23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="V23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="W23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
         <v>1</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="Z23" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -2738,55 +2980,64 @@
         <v>0.38502189999999997</v>
       </c>
       <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>38.155325492473537</v>
+      </c>
+      <c r="K24" s="2">
         <v>11</v>
       </c>
-      <c r="I24" s="2">
+      <c r="L24" s="2">
         <v>36</v>
       </c>
-      <c r="J24" s="2">
+      <c r="M24" s="2">
         <v>42.13</v>
       </c>
-      <c r="K24" s="2">
+      <c r="N24" s="2">
         <v>7.71</v>
       </c>
-      <c r="L24" s="2">
+      <c r="O24" s="2">
         <v>3630</v>
       </c>
-      <c r="M24" s="2">
+      <c r="P24" s="2">
         <v>31218</v>
       </c>
-      <c r="N24" s="2">
+      <c r="Q24" s="2">
         <v>8.1000000000000014</v>
       </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="12">
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="12">
         <v>0.26900000000000002</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="T24" s="2">
         <v>4</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="U24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="V24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="W24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2">
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
         <v>1</v>
       </c>
-      <c r="W24" s="2" t="s">
+      <c r="Z24" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
@@ -2809,55 +3060,64 @@
         <v>0.34487250000000003</v>
       </c>
       <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>26.541810124802819</v>
+      </c>
+      <c r="K25" s="2">
         <v>10.4</v>
       </c>
-      <c r="I25" s="2">
+      <c r="L25" s="2">
         <v>61.5</v>
       </c>
-      <c r="J25" s="2">
+      <c r="M25" s="2">
         <v>16.329999999999998</v>
       </c>
-      <c r="K25" s="2">
+      <c r="N25" s="2">
         <v>9.2200000000000006</v>
       </c>
-      <c r="L25" s="2">
+      <c r="O25" s="2">
         <v>948.2</v>
       </c>
-      <c r="M25" s="2">
+      <c r="P25" s="2">
         <v>8154.52</v>
       </c>
-      <c r="N25" s="2">
+      <c r="Q25" s="2">
         <v>0.5</v>
       </c>
-      <c r="O25" s="2">
+      <c r="R25" s="2">
         <v>3.7</v>
       </c>
-      <c r="P25" s="12">
+      <c r="S25" s="12">
         <v>0.89100000000000001</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="T25" s="2">
         <v>5</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="U25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="V25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="W25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="V25" s="2">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2" t="s">
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
@@ -2880,52 +3140,61 @@
         <v>0.38738250000000002</v>
       </c>
       <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>55.684433308925101</v>
+      </c>
+      <c r="K26" s="2">
         <v>11.3</v>
       </c>
-      <c r="I26" s="2">
+      <c r="L26" s="2">
         <v>17.5</v>
       </c>
-      <c r="J26" s="2">
+      <c r="M26" s="2">
         <v>65.3</v>
       </c>
-      <c r="K26" s="2">
+      <c r="N26" s="2">
         <v>7.53</v>
       </c>
-      <c r="L26" s="2">
+      <c r="O26" s="2">
         <v>273.2</v>
       </c>
-      <c r="M26" s="2">
+      <c r="P26" s="2">
         <v>2595.4</v>
       </c>
-      <c r="N26" s="2">
+      <c r="Q26" s="2">
         <v>1</v>
       </c>
-      <c r="O26" s="2">
+      <c r="R26" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P26" s="12">
+      <c r="S26" s="12">
         <v>0.38600000000000001</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="T26" s="2">
         <v>3</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="U26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="V26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="W26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U26" s="2">
-        <v>0</v>
-      </c>
-      <c r="V26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
@@ -2948,52 +3217,61 @@
         <v>0.45686270000000001</v>
       </c>
       <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>53.000046467959884</v>
+      </c>
+      <c r="K27" s="2">
         <v>28</v>
       </c>
-      <c r="I27" s="2">
+      <c r="L27" s="2">
         <v>24</v>
       </c>
-      <c r="J27" s="2">
+      <c r="M27" s="2">
         <v>60.13</v>
       </c>
-      <c r="K27" s="2">
+      <c r="N27" s="2">
         <v>7.81</v>
       </c>
-      <c r="L27" s="2">
+      <c r="O27" s="2">
         <v>728</v>
       </c>
-      <c r="M27" s="2">
+      <c r="P27" s="2">
         <v>6260.8</v>
       </c>
-      <c r="N27" s="2">
+      <c r="Q27" s="2">
         <v>1.600000000000001</v>
       </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="12">
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="12">
         <v>0.33800000000000002</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="T27" s="2">
         <v>4</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="U27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="V27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="W27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
-      <c r="V27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -3016,52 +3294,61 @@
         <v>0.40806890000000001</v>
       </c>
       <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>54.672445623474943</v>
+      </c>
+      <c r="K28" s="2">
         <v>12.8</v>
       </c>
-      <c r="I28" s="2">
+      <c r="L28" s="2">
         <v>8</v>
       </c>
-      <c r="J28" s="2">
+      <c r="M28" s="2">
         <v>100</v>
       </c>
-      <c r="K28" s="2">
+      <c r="N28" s="2">
         <v>7.19</v>
       </c>
-      <c r="L28" s="2">
+      <c r="O28" s="2">
         <v>358.4</v>
       </c>
-      <c r="M28" s="2">
+      <c r="P28" s="2">
         <v>3404.8</v>
       </c>
-      <c r="N28" s="2">
+      <c r="Q28" s="2">
         <v>0.60000000000000053</v>
       </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="12">
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="12">
         <v>0.17399999999999999</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="T28" s="2">
         <v>2</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="U28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="V28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="W28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -3084,55 +3371,64 @@
         <v>0.34937820000000003</v>
       </c>
       <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>45.834722578686048</v>
+      </c>
+      <c r="K29" s="2">
         <v>8.5</v>
       </c>
-      <c r="I29" s="2">
+      <c r="L29" s="2">
         <v>47.5</v>
       </c>
-      <c r="J29" s="2">
+      <c r="M29" s="2">
         <v>45.4</v>
       </c>
-      <c r="K29" s="2">
+      <c r="N29" s="2">
         <v>7.33</v>
       </c>
-      <c r="L29" s="2">
+      <c r="O29" s="2">
         <v>951.8</v>
       </c>
-      <c r="M29" s="2">
+      <c r="P29" s="2">
         <v>9042.1</v>
       </c>
-      <c r="N29" s="2">
+      <c r="Q29" s="2">
         <v>0.29999999999999982</v>
       </c>
-      <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="12">
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="12">
         <v>0.27900000000000003</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="T29" s="2">
         <v>5</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="U29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="V29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="W29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U29" s="2">
+      <c r="X29" s="2">
         <v>1</v>
       </c>
-      <c r="V29" s="2">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2" t="s">
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -3155,55 +3451,64 @@
         <v>0.36446250000000002</v>
       </c>
       <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>57.799748153945757</v>
+      </c>
+      <c r="K30" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I30" s="2">
+      <c r="L30" s="2">
         <v>31</v>
       </c>
-      <c r="J30" s="2">
+      <c r="M30" s="2">
         <v>43.5</v>
       </c>
-      <c r="K30" s="2">
+      <c r="N30" s="2">
         <v>7.83</v>
       </c>
-      <c r="L30" s="2">
+      <c r="O30" s="2">
         <v>919.2</v>
       </c>
-      <c r="M30" s="2">
+      <c r="P30" s="2">
         <v>7905.12</v>
       </c>
-      <c r="N30" s="2">
+      <c r="Q30" s="2">
         <v>0.90000000000000036</v>
       </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="12">
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="12">
         <v>0.38700000000000001</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="T30" s="2">
         <v>3</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="U30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="V30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="W30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U30" s="2">
+      <c r="X30" s="2">
         <v>1</v>
       </c>
-      <c r="V30" s="2">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2" t="s">
+      <c r="Y30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>88</v>
       </c>
@@ -3226,52 +3531,61 @@
         <v>0.4133539</v>
       </c>
       <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>56.021435093578383</v>
+      </c>
+      <c r="K31" s="2">
         <v>13</v>
       </c>
-      <c r="I31" s="2">
+      <c r="L31" s="2">
         <v>20</v>
       </c>
-      <c r="J31" s="2">
+      <c r="M31" s="2">
         <v>68.5</v>
       </c>
-      <c r="K31" s="2">
+      <c r="N31" s="2">
         <v>7.45</v>
       </c>
-      <c r="L31" s="2">
+      <c r="O31" s="2">
         <v>335.2</v>
       </c>
-      <c r="M31" s="2">
+      <c r="P31" s="2">
         <v>2882.72</v>
       </c>
-      <c r="N31" s="2">
+      <c r="Q31" s="2">
         <v>2.7</v>
       </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
-      <c r="P31" s="12">
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" s="12">
         <v>0.34899999999999998</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="T31" s="2">
         <v>5</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="U31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="V31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="W31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U31" s="2">
-        <v>0</v>
-      </c>
-      <c r="V31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>89</v>
       </c>
@@ -3288,55 +3602,64 @@
         <v>0.41749520000000001</v>
       </c>
       <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>52.904181681337278</v>
+      </c>
+      <c r="K32" s="2">
         <v>12.5</v>
       </c>
-      <c r="I32" s="2">
+      <c r="L32" s="2">
         <v>82.5</v>
       </c>
-      <c r="J32" s="2">
+      <c r="M32" s="2">
         <v>55.63</v>
       </c>
-      <c r="K32" s="2">
+      <c r="N32" s="2">
         <v>8.25</v>
       </c>
-      <c r="L32" s="2">
+      <c r="O32" s="2">
         <v>1309</v>
       </c>
-      <c r="M32" s="2">
+      <c r="P32" s="2">
         <v>12435.5</v>
       </c>
-      <c r="N32" s="2">
+      <c r="Q32" s="2">
         <v>1.100000000000001</v>
       </c>
-      <c r="O32" s="2">
+      <c r="R32" s="2">
         <v>4.3000000000000007</v>
       </c>
-      <c r="P32" s="12">
+      <c r="S32" s="12">
         <v>0.438</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="T32" s="2">
         <v>3</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="U32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="V32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="W32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U32" s="2">
+      <c r="X32" s="2">
         <v>1</v>
       </c>
-      <c r="V32" s="2">
+      <c r="Y32" s="2">
         <v>1</v>
       </c>
-      <c r="W32" s="2" t="s">
+      <c r="Z32" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -3359,55 +3682,64 @@
         <v>0.40898380000000001</v>
       </c>
       <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>54.100325348522396</v>
+      </c>
+      <c r="K33" s="2">
         <v>21.7</v>
       </c>
-      <c r="I33" s="2">
+      <c r="L33" s="2">
         <v>4.5</v>
       </c>
-      <c r="J33" s="2">
+      <c r="M33" s="2">
         <v>73.400000000000006</v>
       </c>
-      <c r="K33" s="2">
+      <c r="N33" s="2">
         <v>7.6</v>
       </c>
-      <c r="L33" s="2">
+      <c r="O33" s="2">
         <v>253</v>
       </c>
-      <c r="M33" s="2">
+      <c r="P33" s="2">
         <v>2175.8000000000002</v>
       </c>
-      <c r="N33" s="2">
+      <c r="Q33" s="2">
         <v>1.5</v>
       </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="12">
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="12">
         <v>0.25</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="T33" s="2">
         <v>2</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="U33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="V33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="W33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
-      <c r="V33" s="2">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2" t="s">
+      <c r="X33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>95</v>
       </c>
@@ -3430,55 +3762,64 @@
         <v>0.43309209999999998</v>
       </c>
       <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>46.957774325313324</v>
+      </c>
+      <c r="K34" s="2">
         <v>22.5</v>
       </c>
-      <c r="I34" s="2">
+      <c r="L34" s="2">
         <v>12</v>
       </c>
-      <c r="J34" s="2">
+      <c r="M34" s="2">
         <v>100</v>
       </c>
-      <c r="K34" s="2">
+      <c r="N34" s="2">
         <v>7.19</v>
       </c>
-      <c r="L34" s="2">
+      <c r="O34" s="2">
         <v>652.6</v>
       </c>
-      <c r="M34" s="2">
+      <c r="P34" s="2">
         <v>5612.36</v>
       </c>
-      <c r="N34" s="2">
+      <c r="Q34" s="2">
         <v>0.90000000000000036</v>
       </c>
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="12">
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="12">
         <v>0.182</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="T34" s="2">
         <v>3</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="U34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="V34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="W34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U34" s="2">
-        <v>0</v>
-      </c>
-      <c r="V34" s="2">
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2">
         <v>1</v>
       </c>
-      <c r="W34" s="2" t="s">
+      <c r="Z34" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>98</v>
       </c>
@@ -3501,52 +3842,61 @@
         <v>0.4099486</v>
       </c>
       <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>45.599171034832352</v>
+      </c>
+      <c r="K35" s="2">
         <v>15.8</v>
       </c>
-      <c r="I35" s="2">
+      <c r="L35" s="2">
         <v>8</v>
       </c>
-      <c r="J35" s="2">
+      <c r="M35" s="2">
         <v>59</v>
       </c>
-      <c r="K35" s="2">
+      <c r="N35" s="2">
         <v>9.14</v>
       </c>
-      <c r="L35" s="2">
+      <c r="O35" s="2">
         <v>1319</v>
       </c>
-      <c r="M35" s="2">
+      <c r="P35" s="2">
         <v>12530.5</v>
       </c>
-      <c r="N35" s="2">
+      <c r="Q35" s="2">
         <v>0.10000000000000051</v>
       </c>
-      <c r="O35" s="2">
+      <c r="R35" s="2">
         <v>2.4</v>
       </c>
-      <c r="P35" s="12">
+      <c r="S35" s="12">
         <v>0.45500000000000002</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="T35" s="2">
         <v>5</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="U35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="V35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="W35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
-      <c r="V35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -3569,55 +3919,64 @@
         <v>0.41049869999999999</v>
       </c>
       <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>50.929604657123633</v>
+      </c>
+      <c r="K36" s="2">
         <v>24.9</v>
       </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
         <v>90.23</v>
       </c>
-      <c r="K36" s="2">
+      <c r="N36" s="2">
         <v>7.58</v>
       </c>
-      <c r="L36" s="2">
+      <c r="O36" s="2">
         <v>655.8</v>
       </c>
-      <c r="M36" s="2">
+      <c r="P36" s="2">
         <v>5639.8799999999992</v>
       </c>
-      <c r="N36" s="2">
+      <c r="Q36" s="2">
         <v>0.10000000000000051</v>
       </c>
-      <c r="O36" s="2">
+      <c r="R36" s="2">
         <v>3.4</v>
       </c>
-      <c r="P36" s="12">
+      <c r="S36" s="12">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="T36" s="2">
         <v>4</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="U36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="S36" s="2" t="s">
+      <c r="V36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T36" s="2" t="s">
+      <c r="W36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2" t="s">
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>103</v>
       </c>
@@ -3640,55 +3999,64 @@
         <v>0.33152219999999999</v>
       </c>
       <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>62.52814152873583</v>
+      </c>
+      <c r="K37" s="2">
         <v>11</v>
       </c>
-      <c r="I37" s="2">
+      <c r="L37" s="2">
         <v>78</v>
       </c>
-      <c r="J37" s="2">
+      <c r="M37" s="2">
         <v>36.4</v>
       </c>
-      <c r="K37" s="2">
+      <c r="N37" s="2">
         <v>8.9</v>
       </c>
-      <c r="L37" s="2">
+      <c r="O37" s="2">
         <v>5580</v>
       </c>
-      <c r="M37" s="2">
+      <c r="P37" s="2">
         <v>47988</v>
       </c>
-      <c r="N37" s="2">
+      <c r="Q37" s="2">
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="O37" s="2">
+      <c r="R37" s="2">
         <v>2.4</v>
       </c>
-      <c r="P37" s="12">
+      <c r="S37" s="12">
         <v>0.94</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="T37" s="2">
         <v>5</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="U37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="V37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="W37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2" t="s">
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
@@ -3711,55 +4079,64 @@
         <v>0.41326079999999998</v>
       </c>
       <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>42.497417728084542</v>
+      </c>
+      <c r="K38" s="2">
         <v>18</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>50</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>51.3</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>7.99</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>554.70000000000005</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>4770.42</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>1</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>6.2999999999999989</v>
       </c>
-      <c r="P38" s="12">
+      <c r="S38" s="12">
         <v>0.67500000000000004</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>2</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="U38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="V38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="W38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2">
         <v>1</v>
       </c>
-      <c r="W38" s="2" t="s">
+      <c r="Z38" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>107</v>
       </c>
@@ -3782,55 +4159,64 @@
         <v>0.3730251</v>
       </c>
       <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>51.684038219113432</v>
+      </c>
+      <c r="K39" s="2">
         <v>26.9</v>
       </c>
-      <c r="I39" s="2">
+      <c r="L39" s="2">
         <v>5</v>
       </c>
-      <c r="J39" s="2">
+      <c r="M39" s="2">
         <v>64.8</v>
       </c>
-      <c r="K39" s="2">
+      <c r="N39" s="2">
         <v>7.96</v>
       </c>
-      <c r="L39" s="2">
+      <c r="O39" s="2">
         <v>574.1</v>
       </c>
-      <c r="M39" s="2">
+      <c r="P39" s="2">
         <v>4937.26</v>
       </c>
-      <c r="N39" s="2">
+      <c r="Q39" s="2">
         <v>2.8</v>
       </c>
-      <c r="O39" s="2">
+      <c r="R39" s="2">
         <v>3.9</v>
       </c>
-      <c r="P39" s="12">
+      <c r="S39" s="12">
         <v>0.23599999999999999</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="T39" s="2">
         <v>3</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="U39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="V39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="W39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U39" s="2">
-        <v>0</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0</v>
-      </c>
-      <c r="W39" s="2" t="s">
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>109</v>
       </c>
@@ -3853,52 +4239,61 @@
         <v>0.3974722</v>
       </c>
       <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>42.310420412357963</v>
+      </c>
+      <c r="K40" s="2">
         <v>20.6</v>
       </c>
-      <c r="I40" s="2">
+      <c r="L40" s="2">
         <v>5</v>
       </c>
-      <c r="J40" s="2">
+      <c r="M40" s="2">
         <v>74.2</v>
       </c>
-      <c r="K40" s="2">
+      <c r="N40" s="2">
         <v>7.6</v>
       </c>
-      <c r="L40" s="2">
+      <c r="O40" s="2">
         <v>251.6</v>
       </c>
-      <c r="M40" s="2">
+      <c r="P40" s="2">
         <v>2163.7600000000002</v>
       </c>
-      <c r="N40" s="2">
+      <c r="Q40" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O40" s="2">
+      <c r="R40" s="2">
         <v>10.8</v>
       </c>
-      <c r="P40" s="12">
+      <c r="S40" s="12">
         <v>0.221</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="T40" s="2">
         <v>3</v>
       </c>
-      <c r="R40" s="2" t="s">
+      <c r="U40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="V40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="W40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-      <c r="V40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>111</v>
       </c>
@@ -3921,52 +4316,61 @@
         <v>0.41873890000000002</v>
       </c>
       <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>47.80280646984378</v>
+      </c>
+      <c r="K41" s="2">
         <v>29</v>
       </c>
-      <c r="I41" s="2">
+      <c r="L41" s="2">
         <v>13</v>
       </c>
-      <c r="J41" s="2">
+      <c r="M41" s="2">
         <v>72.87</v>
       </c>
-      <c r="K41" s="2">
+      <c r="N41" s="2">
         <v>7.08</v>
       </c>
-      <c r="L41" s="2">
+      <c r="O41" s="2">
         <v>460.1</v>
       </c>
-      <c r="M41" s="2">
+      <c r="P41" s="2">
         <v>3956.86</v>
       </c>
-      <c r="N41" s="2">
+      <c r="Q41" s="2">
         <v>7.0000000000000009</v>
       </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="12">
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="12">
         <v>0.21099999999999999</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="T41" s="2">
         <v>3</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="U41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="V41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="W41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -3989,55 +4393,64 @@
         <v>0.39771020000000001</v>
       </c>
       <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>47.572305649932751</v>
+      </c>
+      <c r="K42" s="2">
         <v>26.8</v>
       </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2">
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
         <v>77.7</v>
       </c>
-      <c r="K42" s="2">
+      <c r="N42" s="2">
         <v>7.72</v>
       </c>
-      <c r="L42" s="2">
+      <c r="O42" s="2">
         <v>207.5</v>
       </c>
-      <c r="M42" s="2">
+      <c r="P42" s="2">
         <v>1971.25</v>
       </c>
-      <c r="N42" s="2">
+      <c r="Q42" s="2">
         <v>0.79999999999999982</v>
       </c>
-      <c r="O42" s="2">
+      <c r="R42" s="2">
         <v>2.9</v>
       </c>
-      <c r="P42" s="12">
+      <c r="S42" s="12">
         <v>0.20799999999999999</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="T42" s="2">
         <v>4</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="U42" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="V42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="W42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U42" s="2">
-        <v>0</v>
-      </c>
-      <c r="V42" s="2">
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
         <v>1</v>
       </c>
-      <c r="W42" s="2" t="s">
+      <c r="Z42" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>115</v>
       </c>
@@ -4060,55 +4473,64 @@
         <v>0.3845964</v>
       </c>
       <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>42.585603761920559</v>
+      </c>
+      <c r="K43" s="2">
         <v>23.4</v>
       </c>
-      <c r="I43" s="2">
+      <c r="L43" s="2">
         <v>8</v>
       </c>
-      <c r="J43" s="2">
+      <c r="M43" s="2">
         <v>49.27</v>
       </c>
-      <c r="K43" s="2">
+      <c r="N43" s="2">
         <v>8.35</v>
       </c>
-      <c r="L43" s="2">
+      <c r="O43" s="2">
         <v>270.3</v>
       </c>
-      <c r="M43" s="2">
+      <c r="P43" s="2">
         <v>2324.58</v>
       </c>
-      <c r="N43" s="2">
+      <c r="Q43" s="2">
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="O43" s="2">
+      <c r="R43" s="2">
         <v>8.2999999999999989</v>
       </c>
-      <c r="P43" s="12">
+      <c r="S43" s="12">
         <v>0.878</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="T43" s="2">
         <v>5</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="U43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="S43" s="2" t="s">
+      <c r="V43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="W43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U43" s="2">
-        <v>0</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2" t="s">
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>117</v>
       </c>
@@ -4131,52 +4553,61 @@
         <v>0.46868300000000002</v>
       </c>
       <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>34.931996367365812</v>
+      </c>
+      <c r="K44" s="2">
         <v>12.8</v>
       </c>
-      <c r="I44" s="2">
+      <c r="L44" s="2">
         <v>125</v>
       </c>
-      <c r="J44" s="2">
+      <c r="M44" s="2">
         <v>50.5</v>
       </c>
-      <c r="K44" s="2">
+      <c r="N44" s="2">
         <v>8.3800000000000008</v>
       </c>
-      <c r="L44" s="2">
+      <c r="O44" s="2">
         <v>492.7</v>
       </c>
-      <c r="M44" s="2">
+      <c r="P44" s="2">
         <v>4680.6499999999996</v>
       </c>
-      <c r="N44" s="2">
+      <c r="Q44" s="2">
         <v>0.90000000000000036</v>
       </c>
-      <c r="O44" s="2">
+      <c r="R44" s="2">
         <v>5.1999999999999993</v>
       </c>
-      <c r="P44" s="12">
+      <c r="S44" s="12">
         <v>0.66700000000000004</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="T44" s="2">
         <v>5</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="U44" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="S44" s="2" t="s">
+      <c r="V44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T44" s="2" t="s">
+      <c r="W44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>119</v>
       </c>
@@ -4199,52 +4630,61 @@
         <v>0.43202689999999999</v>
       </c>
       <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>40.924902148609682</v>
+      </c>
+      <c r="K45" s="2">
         <v>11.4</v>
       </c>
-      <c r="I45" s="2">
+      <c r="L45" s="2">
         <v>2</v>
       </c>
-      <c r="J45" s="2">
+      <c r="M45" s="2">
         <v>53.5</v>
       </c>
-      <c r="K45" s="2">
+      <c r="N45" s="2">
         <v>8.68</v>
       </c>
-      <c r="L45" s="2">
+      <c r="O45" s="2">
         <v>162.5</v>
       </c>
-      <c r="M45" s="2">
+      <c r="P45" s="2">
         <v>1397.5</v>
       </c>
-      <c r="N45" s="2">
+      <c r="Q45" s="2">
         <v>0.90000000000000036</v>
       </c>
-      <c r="O45" s="2">
+      <c r="R45" s="2">
         <v>3.4</v>
       </c>
-      <c r="P45" s="12">
+      <c r="S45" s="12">
         <v>0.46400000000000002</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="T45" s="2">
         <v>5</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="U45" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="V45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="W45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>121</v>
       </c>
@@ -4267,52 +4707,61 @@
         <v>0.404721</v>
       </c>
       <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>49.030162546521673</v>
+      </c>
+      <c r="K46" s="2">
         <v>12.9</v>
       </c>
-      <c r="I46" s="2">
+      <c r="L46" s="2">
         <v>10</v>
       </c>
-      <c r="J46" s="2">
+      <c r="M46" s="2">
         <v>63.53</v>
       </c>
-      <c r="K46" s="2">
+      <c r="N46" s="2">
         <v>7.77</v>
       </c>
-      <c r="L46" s="2">
+      <c r="O46" s="2">
         <v>617.20000000000005</v>
       </c>
-      <c r="M46" s="2">
+      <c r="P46" s="2">
         <v>5863.4000000000005</v>
       </c>
-      <c r="N46" s="2">
+      <c r="Q46" s="2">
         <v>3.5000000000000009</v>
       </c>
-      <c r="O46" s="2">
-        <v>0</v>
-      </c>
-      <c r="P46" s="12">
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="12">
         <v>0.317</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="T46" s="2">
         <v>3</v>
       </c>
-      <c r="R46" s="2" t="s">
+      <c r="U46" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="S46" s="2" t="s">
+      <c r="V46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="W46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
@@ -4335,52 +4784,61 @@
         <v>0.44528329999999999</v>
       </c>
       <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>44.108542562567749</v>
+      </c>
+      <c r="K47" s="2">
         <v>24.8</v>
       </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2">
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
         <v>100</v>
       </c>
-      <c r="K47" s="2">
+      <c r="N47" s="2">
         <v>7.14</v>
       </c>
-      <c r="L47" s="2">
+      <c r="O47" s="2">
         <v>423</v>
       </c>
-      <c r="M47" s="2">
+      <c r="P47" s="2">
         <v>3637.8</v>
       </c>
-      <c r="N47" s="2">
+      <c r="Q47" s="2">
         <v>0.70000000000000018</v>
       </c>
-      <c r="O47" s="2">
-        <v>0</v>
-      </c>
-      <c r="P47" s="12">
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" s="12">
         <v>0.2</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="T47" s="2">
         <v>3</v>
       </c>
-      <c r="R47" s="2" t="s">
+      <c r="U47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S47" s="2" t="s">
+      <c r="V47" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="W47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>123</v>
       </c>
@@ -4403,55 +4861,64 @@
         <v>0.34134009999999998</v>
       </c>
       <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>50.373261199538213</v>
+      </c>
+      <c r="K48" s="2">
         <v>10</v>
       </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2">
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
         <v>41.43</v>
       </c>
-      <c r="K48" s="2">
+      <c r="N48" s="2">
         <v>7.99</v>
       </c>
-      <c r="L48" s="2">
+      <c r="O48" s="2">
         <v>828.5</v>
       </c>
-      <c r="M48" s="2">
+      <c r="P48" s="2">
         <v>7125.0999999999995</v>
       </c>
-      <c r="N48" s="2">
+      <c r="Q48" s="2">
         <v>0.60000000000000053</v>
       </c>
-      <c r="O48" s="2">
+      <c r="R48" s="2">
         <v>15.9</v>
       </c>
-      <c r="P48" s="12">
+      <c r="S48" s="12">
         <v>1.1200000000000001</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="T48" s="2">
         <v>7</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="U48" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="S48" s="2" t="s">
+      <c r="V48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="W48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
-      <c r="V48" s="2">
+      <c r="X48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2">
         <v>1</v>
       </c>
-      <c r="W48" s="2" t="s">
+      <c r="Z48" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
@@ -4474,52 +4941,61 @@
         <v>0.3593229</v>
       </c>
       <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>51.706457420521581</v>
+      </c>
+      <c r="K49" s="2">
         <v>10.8</v>
       </c>
-      <c r="I49" s="2">
+      <c r="L49" s="2">
         <v>16</v>
       </c>
-      <c r="J49" s="2">
+      <c r="M49" s="2">
         <v>77.8</v>
       </c>
-      <c r="K49" s="2">
+      <c r="N49" s="2">
         <v>8.44</v>
       </c>
-      <c r="L49" s="2">
+      <c r="O49" s="2">
         <v>1051</v>
       </c>
-      <c r="M49" s="2">
+      <c r="P49" s="2">
         <v>14503.8</v>
       </c>
-      <c r="N49" s="2">
+      <c r="Q49" s="2">
         <v>1.4</v>
       </c>
-      <c r="O49" s="2">
-        <v>0</v>
-      </c>
-      <c r="P49" s="12">
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="12">
         <v>0.72699999999999998</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="T49" s="2">
         <v>5</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="U49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S49" s="2" t="s">
+      <c r="V49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="W49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U49" s="2">
-        <v>0</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>128</v>
       </c>
@@ -4542,55 +5018,64 @@
         <v>0.3212296</v>
       </c>
       <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>50.841705143600301</v>
+      </c>
+      <c r="K50" s="2">
         <v>26.1</v>
       </c>
-      <c r="I50" s="2">
+      <c r="L50" s="2">
         <v>16</v>
       </c>
-      <c r="J50" s="2">
+      <c r="M50" s="2">
         <v>61.67</v>
       </c>
-      <c r="K50" s="2">
+      <c r="N50" s="2">
         <v>8.94</v>
       </c>
-      <c r="L50" s="2">
+      <c r="O50" s="2">
         <v>1570</v>
       </c>
-      <c r="M50" s="2">
+      <c r="P50" s="2">
         <v>13502</v>
       </c>
-      <c r="N50" s="2">
-        <v>0</v>
-      </c>
-      <c r="O50" s="2">
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
         <v>7.5</v>
       </c>
-      <c r="P50" s="12">
+      <c r="S50" s="12">
         <v>1.119</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="T50" s="2">
         <v>7</v>
       </c>
-      <c r="R50" s="2" t="s">
+      <c r="U50" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="S50" s="2" t="s">
+      <c r="V50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="W50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0</v>
-      </c>
-      <c r="W50" s="2" t="s">
+      <c r="X50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>130</v>
       </c>
@@ -4613,52 +5098,61 @@
         <v>0.38209850000000001</v>
       </c>
       <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>48.571768472965204</v>
+      </c>
+      <c r="K51" s="2">
         <v>22.4</v>
       </c>
-      <c r="I51" s="2">
+      <c r="L51" s="2">
         <v>40.5</v>
       </c>
-      <c r="J51" s="2">
+      <c r="M51" s="2">
         <v>46.13</v>
       </c>
-      <c r="K51" s="2">
+      <c r="N51" s="2">
         <v>8.25</v>
       </c>
-      <c r="L51" s="2">
+      <c r="O51" s="2">
         <v>292.39999999999998</v>
       </c>
-      <c r="M51" s="2">
+      <c r="P51" s="2">
         <v>4970.7999999999993</v>
       </c>
-      <c r="N51" s="2">
+      <c r="Q51" s="2">
         <v>0.40000000000000041</v>
       </c>
-      <c r="O51" s="2">
+      <c r="R51" s="2">
         <v>5.6</v>
       </c>
-      <c r="P51" s="12">
+      <c r="S51" s="12">
         <v>1.0940000000000001</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="T51" s="2">
         <v>6</v>
       </c>
-      <c r="R51" s="2" t="s">
+      <c r="U51" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="S51" s="2" t="s">
+      <c r="V51" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="W51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U51" s="2">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>132</v>
       </c>
@@ -4681,52 +5175,61 @@
         <v>0.35713040000000001</v>
       </c>
       <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>46.536236366628238</v>
+      </c>
+      <c r="K52" s="2">
         <v>26</v>
       </c>
-      <c r="I52" s="2">
+      <c r="L52" s="2">
         <v>-3</v>
       </c>
-      <c r="J52" s="2">
+      <c r="M52" s="2">
         <v>100</v>
       </c>
-      <c r="K52" s="2">
+      <c r="N52" s="2">
         <v>7.4</v>
       </c>
-      <c r="L52" s="2">
+      <c r="O52" s="2">
         <v>321</v>
       </c>
-      <c r="M52" s="2">
+      <c r="P52" s="2">
         <v>3049.5</v>
       </c>
-      <c r="N52" s="2">
+      <c r="Q52" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O52" s="2">
-        <v>0</v>
-      </c>
-      <c r="P52" s="12">
+      <c r="R52" s="2">
+        <v>0</v>
+      </c>
+      <c r="S52" s="12">
         <v>0.28100000000000003</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="T52" s="2">
         <v>5</v>
       </c>
-      <c r="R52" s="2" t="s">
+      <c r="U52" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S52" s="2" t="s">
+      <c r="V52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T52" s="2" t="s">
+      <c r="W52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U52" s="2">
-        <v>0</v>
-      </c>
-      <c r="V52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>133</v>
       </c>
@@ -4749,52 +5252,61 @@
         <v>0.40565830000000003</v>
       </c>
       <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>40.116514861667277</v>
+      </c>
+      <c r="K53" s="2">
         <v>17</v>
       </c>
-      <c r="I53" s="2">
+      <c r="L53" s="2">
         <v>22</v>
       </c>
-      <c r="J53" s="2">
+      <c r="M53" s="2">
         <v>62.77</v>
       </c>
-      <c r="K53" s="2">
+      <c r="N53" s="2">
         <v>7.49</v>
       </c>
-      <c r="L53" s="2">
+      <c r="O53" s="2">
         <v>282.7</v>
       </c>
-      <c r="M53" s="2">
+      <c r="P53" s="2">
         <v>3901.26</v>
       </c>
-      <c r="N53" s="2">
+      <c r="Q53" s="2">
         <v>3.600000000000001</v>
       </c>
-      <c r="O53" s="2">
+      <c r="R53" s="2">
         <v>6.1</v>
       </c>
-      <c r="P53" s="12">
+      <c r="S53" s="12">
         <v>0.42</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="T53" s="2">
         <v>6</v>
       </c>
-      <c r="R53" s="2" t="s">
+      <c r="U53" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="S53" s="2" t="s">
+      <c r="V53" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T53" s="2" t="s">
+      <c r="W53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U53" s="2">
-        <v>0</v>
-      </c>
-      <c r="V53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>135</v>
       </c>
@@ -4817,55 +5329,64 @@
         <v>0.3657514</v>
       </c>
       <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>48.150523241424388</v>
+      </c>
+      <c r="K54" s="2">
         <v>15.9</v>
       </c>
-      <c r="I54" s="2">
+      <c r="L54" s="2">
         <v>12</v>
       </c>
-      <c r="J54" s="2">
+      <c r="M54" s="2">
         <v>47.2</v>
       </c>
-      <c r="K54" s="2">
+      <c r="N54" s="2">
         <v>8.6199999999999992</v>
       </c>
-      <c r="L54" s="2">
+      <c r="O54" s="2">
         <v>986.2</v>
       </c>
-      <c r="M54" s="2">
+      <c r="P54" s="2">
         <v>9368.9</v>
       </c>
-      <c r="N54" s="2">
+      <c r="Q54" s="2">
         <v>4.0000000000000009</v>
       </c>
-      <c r="O54" s="2">
+      <c r="R54" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P54" s="12">
+      <c r="S54" s="12">
         <v>0.46400000000000002</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="T54" s="2">
         <v>6</v>
       </c>
-      <c r="R54" s="2" t="s">
+      <c r="U54" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="S54" s="2" t="s">
+      <c r="V54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T54" s="2" t="s">
+      <c r="W54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2">
-        <v>0</v>
-      </c>
-      <c r="W54" s="2" t="s">
+      <c r="X54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>138</v>
       </c>
@@ -4888,55 +5409,64 @@
         <v>0.4169447</v>
       </c>
       <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="13">
+        <v>0</v>
+      </c>
+      <c r="J55" s="13">
+        <v>35.479497635867638</v>
+      </c>
+      <c r="K55" s="13">
         <v>19.7</v>
       </c>
-      <c r="I55" s="13">
+      <c r="L55" s="13">
         <v>15</v>
       </c>
-      <c r="J55" s="13">
+      <c r="M55" s="13">
         <v>67.5</v>
       </c>
-      <c r="K55" s="13">
+      <c r="N55" s="13">
         <v>7.75</v>
       </c>
-      <c r="L55" s="13">
+      <c r="O55" s="13">
         <v>610.79999999999995</v>
       </c>
-      <c r="M55" s="13">
+      <c r="P55" s="13">
         <v>8429.0399999999991</v>
       </c>
-      <c r="N55" s="13">
+      <c r="Q55" s="13">
         <v>7.6000000000000014</v>
       </c>
-      <c r="O55" s="13">
+      <c r="R55" s="13">
         <v>6.9</v>
       </c>
-      <c r="P55" s="16">
+      <c r="S55" s="16">
         <v>0.37</v>
       </c>
-      <c r="Q55" s="13">
+      <c r="T55" s="13">
         <v>5</v>
       </c>
-      <c r="R55" s="13" t="s">
+      <c r="U55" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="S55" s="13" t="s">
+      <c r="V55" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="T55" s="13" t="s">
+      <c r="W55" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U55" s="13">
+      <c r="X55" s="13">
         <v>1</v>
       </c>
-      <c r="V55" s="13">
-        <v>0</v>
-      </c>
-      <c r="W55" s="13" t="s">
+      <c r="Y55" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>140</v>
       </c>
@@ -4959,52 +5489,61 @@
         <v>0.42669780000000002</v>
       </c>
       <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>38.460740753545537</v>
+      </c>
+      <c r="K56" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="I56" s="2">
+      <c r="L56" s="2">
         <v>9.5</v>
       </c>
-      <c r="J56" s="2">
+      <c r="M56" s="2">
         <v>67.67</v>
       </c>
-      <c r="K56" s="2">
+      <c r="N56" s="2">
         <v>7.8</v>
       </c>
-      <c r="L56" s="2">
+      <c r="O56" s="2">
         <v>322.39999999999998</v>
       </c>
-      <c r="M56" s="2">
+      <c r="P56" s="2">
         <v>4449.12</v>
       </c>
-      <c r="N56" s="2">
+      <c r="Q56" s="2">
         <v>2.4</v>
       </c>
-      <c r="O56" s="2">
+      <c r="R56" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="P56" s="12">
+      <c r="S56" s="12">
         <v>0.44700000000000001</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="T56" s="2">
         <v>4</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="U56" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="V56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T56" s="2" t="s">
+      <c r="W56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U56" s="2">
-        <v>0</v>
-      </c>
-      <c r="V56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>142</v>
       </c>
@@ -5027,55 +5566,64 @@
         <v>0.40291830000000001</v>
       </c>
       <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>45.494611823454633</v>
+      </c>
+      <c r="K57" s="2">
         <v>25.6</v>
       </c>
-      <c r="I57" s="2">
+      <c r="L57" s="2">
         <v>4</v>
       </c>
-      <c r="J57" s="2">
+      <c r="M57" s="2">
         <v>80.5</v>
       </c>
-      <c r="K57" s="2">
+      <c r="N57" s="2">
         <v>6.71</v>
       </c>
-      <c r="L57" s="2">
+      <c r="O57" s="2">
         <v>514.4</v>
       </c>
-      <c r="M57" s="2">
+      <c r="P57" s="2">
         <v>4423.8399999999992</v>
       </c>
-      <c r="N57" s="2">
+      <c r="Q57" s="2">
         <v>5.5000000000000009</v>
       </c>
-      <c r="O57" s="2">
-        <v>0</v>
-      </c>
-      <c r="P57" s="12">
+      <c r="R57" s="2">
+        <v>0</v>
+      </c>
+      <c r="S57" s="12">
         <v>0.20399999999999999</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="T57" s="2">
         <v>2</v>
       </c>
-      <c r="R57" s="2" t="s">
+      <c r="U57" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S57" s="2" t="s">
+      <c r="V57" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T57" s="2" t="s">
+      <c r="W57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U57" s="2">
+      <c r="X57" s="2">
         <v>1</v>
       </c>
-      <c r="V57" s="2">
+      <c r="Y57" s="2">
         <v>1</v>
       </c>
-      <c r="W57" s="2" t="s">
+      <c r="Z57" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>145</v>
       </c>
@@ -5098,52 +5646,61 @@
         <v>0.39139800000000002</v>
       </c>
       <c r="H58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2">
+        <v>51.468551219706022</v>
+      </c>
+      <c r="K58" s="2">
         <v>34.700000000000003</v>
       </c>
-      <c r="I58" s="2">
+      <c r="L58" s="2">
         <v>3</v>
       </c>
-      <c r="J58" s="2">
+      <c r="M58" s="2">
         <v>74.069999999999993</v>
       </c>
-      <c r="K58" s="2">
+      <c r="N58" s="2">
         <v>7.44</v>
       </c>
-      <c r="L58" s="2">
+      <c r="O58" s="2">
         <v>483.1</v>
       </c>
-      <c r="M58" s="2">
+      <c r="P58" s="2">
         <v>4589.45</v>
       </c>
-      <c r="N58" s="2">
+      <c r="Q58" s="2">
         <v>4.5000000000000009</v>
       </c>
-      <c r="O58" s="2">
-        <v>0</v>
-      </c>
-      <c r="P58" s="12">
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
+      <c r="S58" s="12">
         <v>0.27200000000000002</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="T58" s="2">
         <v>4</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="U58" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="S58" s="2" t="s">
+      <c r="V58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T58" s="2" t="s">
+      <c r="W58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U58" s="2">
-        <v>0</v>
-      </c>
-      <c r="V58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>147</v>
       </c>
@@ -5166,55 +5723,64 @@
         <v>0.39244370000000001</v>
       </c>
       <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>51.803874055350477</v>
+      </c>
+      <c r="K59" s="2">
         <v>22.6</v>
       </c>
-      <c r="I59" s="2">
+      <c r="L59" s="2">
         <v>-1</v>
       </c>
-      <c r="J59" s="2">
+      <c r="M59" s="2">
         <v>93.73</v>
       </c>
-      <c r="K59" s="2">
+      <c r="N59" s="2">
         <v>7.37</v>
       </c>
-      <c r="L59" s="2">
+      <c r="O59" s="2">
         <v>277.10000000000002</v>
       </c>
-      <c r="M59" s="2">
+      <c r="P59" s="2">
         <v>2632.45</v>
       </c>
-      <c r="N59" s="2">
+      <c r="Q59" s="2">
         <v>1.5</v>
       </c>
-      <c r="O59" s="2">
+      <c r="R59" s="2">
         <v>0.39999999999999991</v>
       </c>
-      <c r="P59" s="12">
+      <c r="S59" s="12">
         <v>0.17</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="T59" s="2">
         <v>4</v>
       </c>
-      <c r="R59" s="2" t="s">
+      <c r="U59" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S59" s="2" t="s">
+      <c r="V59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T59" s="2" t="s">
+      <c r="W59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U59" s="2">
-        <v>0</v>
-      </c>
-      <c r="V59" s="2">
-        <v>0</v>
-      </c>
-      <c r="W59" s="2" t="s">
+      <c r="X59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>150</v>
       </c>
@@ -5237,52 +5803,61 @@
         <v>0.3417598</v>
       </c>
       <c r="H60" s="2">
-        <v>10.9</v>
+        <v>1</v>
       </c>
       <c r="I60" s="2">
         <v>1</v>
       </c>
       <c r="J60" s="2">
+        <v>58.448163606696532</v>
+      </c>
+      <c r="K60" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2">
         <v>51.33</v>
       </c>
-      <c r="K60" s="2">
+      <c r="N60" s="2">
         <v>8.58</v>
       </c>
-      <c r="L60" s="2">
+      <c r="O60" s="2">
         <v>413.8</v>
       </c>
-      <c r="M60" s="2">
+      <c r="P60" s="2">
         <v>7034.6</v>
       </c>
-      <c r="N60" s="2">
+      <c r="Q60" s="2">
         <v>1.100000000000001</v>
       </c>
-      <c r="O60" s="2">
+      <c r="R60" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="P60" s="12">
+      <c r="S60" s="12">
         <v>1.046</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="T60" s="2">
         <v>6</v>
       </c>
-      <c r="R60" s="2" t="s">
+      <c r="U60" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="S60" s="2" t="s">
+      <c r="V60" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="T60" s="2" t="s">
+      <c r="W60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U60" s="2">
-        <v>0</v>
-      </c>
-      <c r="V60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>152</v>
       </c>
@@ -5305,52 +5880,61 @@
         <v>0.34031519999999998</v>
       </c>
       <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>41.41283810245352</v>
+      </c>
+      <c r="K61" s="2">
         <v>10.7</v>
       </c>
-      <c r="I61" s="2">
+      <c r="L61" s="2">
         <v>46</v>
       </c>
-      <c r="J61" s="2">
+      <c r="M61" s="2">
         <v>21.37</v>
       </c>
-      <c r="K61" s="2">
+      <c r="N61" s="2">
         <v>9.2100000000000009</v>
       </c>
-      <c r="L61" s="2">
+      <c r="O61" s="2">
         <v>979.6</v>
       </c>
-      <c r="M61" s="2">
+      <c r="P61" s="2">
         <v>16653.2</v>
       </c>
-      <c r="N61" s="2">
-        <v>0</v>
-      </c>
-      <c r="O61" s="2">
+      <c r="Q61" s="2">
+        <v>0</v>
+      </c>
+      <c r="R61" s="2">
         <v>6.5</v>
       </c>
-      <c r="P61" s="12">
+      <c r="S61" s="12">
         <v>1.4079999999999999</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="T61" s="2">
         <v>6</v>
       </c>
-      <c r="R61" s="2" t="s">
+      <c r="U61" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="S61" s="2" t="s">
+      <c r="V61" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="T61" s="2" t="s">
+      <c r="W61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U61" s="2">
-        <v>0</v>
-      </c>
-      <c r="V61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>154</v>
       </c>
@@ -5373,52 +5957,61 @@
         <v>0.35470410000000002</v>
       </c>
       <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>31.74261124908616</v>
+      </c>
+      <c r="K62" s="2">
         <v>12</v>
       </c>
-      <c r="I62" s="2">
+      <c r="L62" s="2">
         <v>197</v>
       </c>
-      <c r="J62" s="2">
+      <c r="M62" s="2">
         <v>15.47</v>
       </c>
-      <c r="K62" s="2">
+      <c r="N62" s="2">
         <v>8.43</v>
       </c>
-      <c r="L62" s="2">
+      <c r="O62" s="2">
         <v>629.29999999999995</v>
       </c>
-      <c r="M62" s="2">
+      <c r="P62" s="2">
         <v>8684.34</v>
       </c>
-      <c r="N62" s="2">
+      <c r="Q62" s="2">
         <v>0.79999999999999982</v>
       </c>
-      <c r="O62" s="2">
+      <c r="R62" s="2">
         <v>1.4</v>
       </c>
-      <c r="P62" s="12">
+      <c r="S62" s="12">
         <v>0.997</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="T62" s="2">
         <v>6</v>
       </c>
-      <c r="R62" s="2" t="s">
+      <c r="U62" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="S62" s="2" t="s">
+      <c r="V62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T62" s="2" t="s">
+      <c r="W62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U62" s="2">
-        <v>0</v>
-      </c>
-      <c r="V62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>155</v>
       </c>
@@ -5441,52 +6034,61 @@
         <v>0.38920670000000002</v>
       </c>
       <c r="H63" s="2">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2">
+        <v>53.481457144513008</v>
+      </c>
+      <c r="K63" s="2">
         <v>14.4</v>
       </c>
-      <c r="I63" s="2">
+      <c r="L63" s="2">
         <v>82</v>
       </c>
-      <c r="J63" s="2">
+      <c r="M63" s="2">
         <v>41.33</v>
       </c>
-      <c r="K63" s="2">
+      <c r="N63" s="2">
         <v>8.07</v>
       </c>
-      <c r="L63" s="2">
+      <c r="O63" s="2">
         <v>1507</v>
       </c>
-      <c r="M63" s="2">
+      <c r="P63" s="2">
         <v>12960.2</v>
       </c>
-      <c r="N63" s="2">
+      <c r="Q63" s="2">
         <v>0.70000000000000018</v>
       </c>
-      <c r="O63" s="2">
+      <c r="R63" s="2">
         <v>14</v>
       </c>
-      <c r="P63" s="12">
+      <c r="S63" s="12">
         <v>0.878</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="T63" s="2">
         <v>5</v>
       </c>
-      <c r="R63" s="2" t="s">
+      <c r="U63" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="S63" s="2" t="s">
+      <c r="V63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T63" s="2" t="s">
+      <c r="W63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U63" s="2">
-        <v>0</v>
-      </c>
-      <c r="V63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -5509,52 +6111,61 @@
         <v>0.37471589999999999</v>
       </c>
       <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>48.630059642887232</v>
+      </c>
+      <c r="K64" s="2">
         <v>13.8</v>
       </c>
-      <c r="I64" s="2">
+      <c r="L64" s="2">
         <v>7</v>
       </c>
-      <c r="J64" s="2">
+      <c r="M64" s="2">
         <v>55.07</v>
       </c>
-      <c r="K64" s="2">
+      <c r="N64" s="2">
         <v>7.75</v>
       </c>
-      <c r="L64" s="2">
+      <c r="O64" s="2">
         <v>308.39999999999998</v>
       </c>
-      <c r="M64" s="2">
+      <c r="P64" s="2">
         <v>2929.8</v>
       </c>
-      <c r="N64" s="2">
+      <c r="Q64" s="2">
         <v>0.5</v>
       </c>
-      <c r="O64" s="2">
+      <c r="R64" s="2">
         <v>15.5</v>
       </c>
-      <c r="P64" s="12">
+      <c r="S64" s="12">
         <v>0.96</v>
       </c>
-      <c r="Q64" s="2">
+      <c r="T64" s="2">
         <v>7</v>
       </c>
-      <c r="R64" s="2" t="s">
+      <c r="U64" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="S64" s="2" t="s">
+      <c r="V64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T64" s="2" t="s">
+      <c r="W64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U64" s="2">
-        <v>0</v>
-      </c>
-      <c r="V64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>157</v>
       </c>
@@ -5577,55 +6188,64 @@
         <v>0.34128740000000002</v>
       </c>
       <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>26.7267982969984</v>
+      </c>
+      <c r="K65" s="2">
         <v>11.6</v>
       </c>
-      <c r="I65" s="2">
+      <c r="L65" s="2">
         <v>66</v>
       </c>
-      <c r="J65" s="2">
+      <c r="M65" s="2">
         <v>32.9</v>
       </c>
-      <c r="K65" s="2">
+      <c r="N65" s="2">
         <v>8.58</v>
       </c>
-      <c r="L65" s="2">
+      <c r="O65" s="2">
         <v>1297</v>
       </c>
-      <c r="M65" s="2">
+      <c r="P65" s="2">
         <v>12321.5</v>
       </c>
-      <c r="N65" s="2">
-        <v>0</v>
-      </c>
-      <c r="O65" s="2">
+      <c r="Q65" s="2">
+        <v>0</v>
+      </c>
+      <c r="R65" s="2">
         <v>12.1</v>
       </c>
-      <c r="P65" s="12">
+      <c r="S65" s="12">
         <v>1.2230000000000001</v>
       </c>
-      <c r="Q65" s="2">
+      <c r="T65" s="2">
         <v>6</v>
       </c>
-      <c r="R65" s="2" t="s">
+      <c r="U65" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="S65" s="2" t="s">
+      <c r="V65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T65" s="2" t="s">
+      <c r="W65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U65" s="2">
-        <v>0</v>
-      </c>
-      <c r="V65" s="2">
-        <v>0</v>
-      </c>
-      <c r="W65" s="2" t="s">
+      <c r="X65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>160</v>
       </c>
@@ -5648,55 +6268,64 @@
         <v>0.37381189999999997</v>
       </c>
       <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>34.966737347009342</v>
+      </c>
+      <c r="K66" s="2">
         <v>11</v>
       </c>
-      <c r="I66" s="2">
+      <c r="L66" s="2">
         <v>74</v>
       </c>
-      <c r="J66" s="2">
+      <c r="M66" s="2">
         <v>26.23</v>
       </c>
-      <c r="K66" s="2">
+      <c r="N66" s="2">
         <v>8.6</v>
       </c>
-      <c r="L66" s="2">
+      <c r="O66" s="2">
         <v>869.9</v>
       </c>
-      <c r="M66" s="2">
+      <c r="P66" s="2">
         <v>8264.0499999999993</v>
       </c>
-      <c r="N66" s="2">
-        <v>0</v>
-      </c>
-      <c r="O66" s="2">
+      <c r="Q66" s="2">
+        <v>0</v>
+      </c>
+      <c r="R66" s="2">
         <v>17.899999999999999</v>
       </c>
-      <c r="P66" s="12">
+      <c r="S66" s="12">
         <v>0.94099999999999995</v>
       </c>
-      <c r="Q66" s="2">
+      <c r="T66" s="2">
         <v>7</v>
       </c>
-      <c r="R66" s="2" t="s">
+      <c r="U66" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="S66" s="2" t="s">
+      <c r="V66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T66" s="2" t="s">
+      <c r="W66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U66" s="2">
+      <c r="X66" s="2">
         <v>1</v>
       </c>
-      <c r="V66" s="2">
-        <v>0</v>
-      </c>
-      <c r="W66" s="2" t="s">
+      <c r="Y66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>162</v>
       </c>
@@ -5719,53 +6348,62 @@
         <v>0.38143379999999999</v>
       </c>
       <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2">
+        <v>49.206940908038973</v>
+      </c>
+      <c r="K67" s="2">
         <v>12.1</v>
       </c>
-      <c r="I67" s="2">
+      <c r="L67" s="2">
         <v>10</v>
       </c>
-      <c r="J67" s="2">
+      <c r="M67" s="2">
         <v>57.83</v>
       </c>
-      <c r="K67" s="2">
+      <c r="N67" s="2">
         <v>7.75</v>
       </c>
-      <c r="L67" s="2">
+      <c r="O67" s="2">
         <v>585.5</v>
       </c>
-      <c r="M67" s="2">
+      <c r="P67" s="2">
         <v>8079.9000000000005</v>
       </c>
-      <c r="N67" s="2">
+      <c r="Q67" s="2">
         <v>1.3</v>
       </c>
-      <c r="O67" s="2">
+      <c r="R67" s="2">
         <v>10.7</v>
       </c>
-      <c r="P67" s="12">
+      <c r="S67" s="12">
         <v>0.57499999999999996</v>
       </c>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="2" t="s">
+      <c r="T67" s="10"/>
+      <c r="U67" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="S67" s="2" t="s">
+      <c r="V67" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T67" s="2" t="s">
+      <c r="W67" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U67" s="2">
+      <c r="X67" s="2">
         <v>1</v>
       </c>
-      <c r="V67" s="2">
-        <v>0</v>
-      </c>
-      <c r="W67" s="2" t="s">
+      <c r="Y67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>165</v>
       </c>
@@ -5788,55 +6426,64 @@
         <v>0.34260659999999998</v>
       </c>
       <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2">
+        <v>49.132788247608573</v>
+      </c>
+      <c r="K68" s="2">
         <v>11.6</v>
       </c>
-      <c r="I68" s="2">
+      <c r="L68" s="2">
         <v>174</v>
       </c>
-      <c r="J68" s="2">
+      <c r="M68" s="2">
         <v>14.03</v>
       </c>
-      <c r="K68" s="2">
+      <c r="N68" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L68" s="2">
+      <c r="O68" s="2">
         <v>1428</v>
       </c>
-      <c r="M68" s="2">
+      <c r="P68" s="2">
         <v>13566</v>
       </c>
-      <c r="N68" s="2">
+      <c r="Q68" s="2">
         <v>0.29999999999999982</v>
       </c>
-      <c r="O68" s="2">
+      <c r="R68" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P68" s="12">
+      <c r="S68" s="12">
         <v>0.67500000000000004</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="T68" s="2">
         <v>5</v>
       </c>
-      <c r="R68" s="2" t="s">
+      <c r="U68" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="S68" s="2" t="s">
+      <c r="V68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T68" s="2" t="s">
+      <c r="W68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U68" s="2">
+      <c r="X68" s="2">
         <v>1</v>
       </c>
-      <c r="V68" s="2">
-        <v>0</v>
-      </c>
-      <c r="W68" s="2" t="s">
+      <c r="Y68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>167</v>
       </c>
@@ -5859,52 +6506,61 @@
         <v>0.36023840000000001</v>
       </c>
       <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>41.879523658863697</v>
+      </c>
+      <c r="K69" s="2">
         <v>23.3</v>
       </c>
-      <c r="I69" s="2">
+      <c r="L69" s="2">
         <v>83</v>
       </c>
-      <c r="J69" s="2">
+      <c r="M69" s="2">
         <v>55.47</v>
       </c>
-      <c r="K69" s="2">
+      <c r="N69" s="2">
         <v>8.08</v>
       </c>
-      <c r="L69" s="2">
+      <c r="O69" s="2">
         <v>3250</v>
       </c>
-      <c r="M69" s="2">
+      <c r="P69" s="2">
         <v>27950</v>
       </c>
-      <c r="N69" s="2">
+      <c r="Q69" s="2">
         <v>0.60000000000000053</v>
       </c>
-      <c r="O69" s="2">
-        <v>0</v>
-      </c>
-      <c r="P69" s="12">
+      <c r="R69" s="2">
+        <v>0</v>
+      </c>
+      <c r="S69" s="12">
         <v>0.753</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="T69" s="2">
         <v>6</v>
       </c>
-      <c r="R69" s="2" t="s">
+      <c r="U69" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S69" s="2" t="s">
+      <c r="V69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T69" s="2" t="s">
+      <c r="W69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U69" s="2">
-        <v>0</v>
-      </c>
-      <c r="V69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>168</v>
       </c>
@@ -5927,55 +6583,64 @@
         <v>0.34599210000000002</v>
       </c>
       <c r="H70" s="2">
+        <v>1</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2">
+        <v>41.077508642714193</v>
+      </c>
+      <c r="K70" s="2">
         <v>10.7</v>
       </c>
-      <c r="I70" s="2">
+      <c r="L70" s="2">
         <v>2</v>
       </c>
-      <c r="J70" s="2">
+      <c r="M70" s="2">
         <v>47.2</v>
       </c>
-      <c r="K70" s="2">
+      <c r="N70" s="2">
         <v>7.72</v>
       </c>
-      <c r="L70" s="2">
+      <c r="O70" s="2">
         <v>409.5</v>
       </c>
-      <c r="M70" s="2">
+      <c r="P70" s="2">
         <v>3521.7</v>
       </c>
-      <c r="N70" s="2">
+      <c r="Q70" s="2">
         <v>0.70000000000000018</v>
       </c>
-      <c r="O70" s="2">
+      <c r="R70" s="2">
         <v>7.4</v>
       </c>
-      <c r="P70" s="12">
+      <c r="S70" s="12">
         <v>1.0549999999999999</v>
       </c>
-      <c r="Q70" s="2">
+      <c r="T70" s="2">
         <v>5</v>
       </c>
-      <c r="R70" s="2" t="s">
+      <c r="U70" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="S70" s="2" t="s">
+      <c r="V70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T70" s="2" t="s">
+      <c r="W70" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U70" s="2">
-        <v>0</v>
-      </c>
-      <c r="V70" s="2">
-        <v>0</v>
-      </c>
-      <c r="W70" s="2" t="s">
+      <c r="X70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>171</v>
       </c>
@@ -5998,52 +6663,61 @@
         <v>0.35153489999999998</v>
       </c>
       <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>36.001386172333703</v>
+      </c>
+      <c r="K71" s="2">
         <v>11.8</v>
       </c>
-      <c r="I71" s="2">
+      <c r="L71" s="2">
         <v>34.5</v>
       </c>
-      <c r="J71" s="2">
+      <c r="M71" s="2">
         <v>46.13</v>
       </c>
-      <c r="K71" s="2">
+      <c r="N71" s="2">
         <v>8.1300000000000008</v>
       </c>
-      <c r="L71" s="2">
+      <c r="O71" s="2">
         <v>1432</v>
       </c>
-      <c r="M71" s="2">
+      <c r="P71" s="2">
         <v>13604</v>
       </c>
-      <c r="N71" s="2">
+      <c r="Q71" s="2">
         <v>0.29999999999999982</v>
       </c>
-      <c r="O71" s="2">
+      <c r="R71" s="2">
         <v>6.4</v>
       </c>
-      <c r="P71" s="12">
+      <c r="S71" s="12">
         <v>0.86099999999999999</v>
       </c>
-      <c r="Q71" s="2">
+      <c r="T71" s="2">
         <v>5</v>
       </c>
-      <c r="R71" s="2" t="s">
+      <c r="U71" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S71" s="2" t="s">
+      <c r="V71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T71" s="2" t="s">
+      <c r="W71" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U71" s="2">
-        <v>0</v>
-      </c>
-      <c r="V71" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>172</v>
       </c>
@@ -6066,52 +6740,61 @@
         <v>0.40604040000000002</v>
       </c>
       <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>41.135793208585618</v>
+      </c>
+      <c r="K72" s="2">
         <v>11.8</v>
       </c>
-      <c r="I72" s="2">
+      <c r="L72" s="2">
         <v>6</v>
       </c>
-      <c r="J72" s="2">
+      <c r="M72" s="2">
         <v>61.2</v>
       </c>
-      <c r="K72" s="2">
+      <c r="N72" s="2">
         <v>7.72</v>
       </c>
-      <c r="L72" s="2">
+      <c r="O72" s="2">
         <v>692.1</v>
       </c>
-      <c r="M72" s="2">
+      <c r="P72" s="2">
         <v>5952.06</v>
       </c>
-      <c r="N72" s="2">
+      <c r="Q72" s="2">
         <v>0.5</v>
       </c>
-      <c r="O72" s="2">
+      <c r="R72" s="2">
         <v>7.6</v>
       </c>
-      <c r="P72" s="12">
+      <c r="S72" s="12">
         <v>0.69</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="T72" s="2">
         <v>7</v>
       </c>
-      <c r="R72" s="2" t="s">
+      <c r="U72" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="S72" s="2" t="s">
+      <c r="V72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T72" s="2" t="s">
+      <c r="W72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U72" s="2">
-        <v>0</v>
-      </c>
-      <c r="V72" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>174</v>
       </c>
@@ -6128,55 +6811,64 @@
         <v>0.37074750000000001</v>
       </c>
       <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
+        <v>48.762241722920884</v>
+      </c>
+      <c r="K73" s="2">
         <v>12.3</v>
       </c>
-      <c r="I73" s="2">
+      <c r="L73" s="2">
         <v>1</v>
       </c>
-      <c r="J73" s="2">
+      <c r="M73" s="2">
         <v>61.4</v>
       </c>
-      <c r="K73" s="2">
+      <c r="N73" s="2">
         <v>7.21</v>
       </c>
-      <c r="L73" s="2">
+      <c r="O73" s="2">
         <v>613.20000000000005</v>
       </c>
-      <c r="M73" s="2">
+      <c r="P73" s="2">
         <v>8462.1600000000017</v>
       </c>
-      <c r="N73" s="2">
+      <c r="Q73" s="2">
         <v>1.600000000000001</v>
       </c>
-      <c r="O73" s="2">
+      <c r="R73" s="2">
         <v>1.6</v>
       </c>
-      <c r="P73" s="12">
+      <c r="S73" s="12">
         <v>0.442</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="T73" s="2">
         <v>3</v>
       </c>
-      <c r="R73" s="2" t="s">
+      <c r="U73" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S73" s="2" t="s">
+      <c r="V73" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T73" s="2" t="s">
+      <c r="W73" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U73" s="2">
+      <c r="X73" s="2">
         <v>1</v>
       </c>
-      <c r="V73" s="2">
-        <v>0</v>
-      </c>
-      <c r="W73" s="2" t="s">
+      <c r="Y73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>176</v>
       </c>
@@ -6199,52 +6891,61 @@
         <v>0.35008889999999998</v>
       </c>
       <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
+        <v>25.35020549239557</v>
+      </c>
+      <c r="K74" s="2">
         <v>9.6</v>
       </c>
-      <c r="I74" s="2">
+      <c r="L74" s="2">
         <v>81</v>
       </c>
-      <c r="J74" s="2">
+      <c r="M74" s="2">
         <v>27.33</v>
       </c>
-      <c r="K74" s="2">
+      <c r="N74" s="2">
         <v>8.31</v>
       </c>
-      <c r="L74" s="2">
+      <c r="O74" s="2">
         <v>398.7</v>
       </c>
-      <c r="M74" s="2">
+      <c r="P74" s="2">
         <v>3428.82</v>
       </c>
-      <c r="N74" s="2">
-        <v>0</v>
-      </c>
-      <c r="O74" s="2">
+      <c r="Q74" s="2">
+        <v>0</v>
+      </c>
+      <c r="R74" s="2">
         <v>11.2</v>
       </c>
-      <c r="P74" s="12">
+      <c r="S74" s="12">
         <v>1.1870000000000001</v>
       </c>
-      <c r="Q74" s="2">
+      <c r="T74" s="2">
         <v>7</v>
       </c>
-      <c r="R74" s="2" t="s">
+      <c r="U74" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="S74" s="2" t="s">
+      <c r="V74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T74" s="2" t="s">
+      <c r="W74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U74" s="2">
-        <v>0</v>
-      </c>
-      <c r="V74" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>177</v>
       </c>
@@ -6267,52 +6968,61 @@
         <v>0.3843608</v>
       </c>
       <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>38.028706129533539</v>
+      </c>
+      <c r="K75" s="2">
         <v>13.8</v>
       </c>
-      <c r="I75" s="2">
+      <c r="L75" s="2">
         <v>81</v>
       </c>
-      <c r="J75" s="2">
+      <c r="M75" s="2">
         <v>40.33</v>
       </c>
-      <c r="K75" s="2">
+      <c r="N75" s="2">
         <v>8.69</v>
       </c>
-      <c r="L75" s="2">
+      <c r="O75" s="2">
         <v>914.7</v>
       </c>
-      <c r="M75" s="2">
+      <c r="P75" s="2">
         <v>8689.65</v>
       </c>
-      <c r="N75" s="2">
+      <c r="Q75" s="2">
         <v>0.5</v>
       </c>
-      <c r="O75" s="2">
+      <c r="R75" s="2">
         <v>7.4</v>
       </c>
-      <c r="P75" s="12">
+      <c r="S75" s="12">
         <v>0.74399999999999999</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="T75" s="2">
         <v>6</v>
       </c>
-      <c r="R75" s="2" t="s">
+      <c r="U75" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="S75" s="2" t="s">
+      <c r="V75" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T75" s="2" t="s">
+      <c r="W75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U75" s="2">
-        <v>0</v>
-      </c>
-      <c r="V75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X75" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>178</v>
       </c>
@@ -6335,52 +7045,61 @@
         <v>0.38380249999999999</v>
       </c>
       <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>36.626165674363023</v>
+      </c>
+      <c r="K76" s="2">
         <v>12.2</v>
       </c>
-      <c r="I76" s="2">
+      <c r="L76" s="2">
         <v>45</v>
       </c>
-      <c r="J76" s="2">
+      <c r="M76" s="2">
         <v>43.47</v>
       </c>
-      <c r="K76" s="2">
+      <c r="N76" s="2">
         <v>7.92</v>
       </c>
-      <c r="L76" s="2">
+      <c r="O76" s="2">
         <v>251</v>
       </c>
-      <c r="M76" s="2">
+      <c r="P76" s="2">
         <v>2384.5</v>
       </c>
-      <c r="N76" s="2">
+      <c r="Q76" s="2">
         <v>0.79999999999999982</v>
       </c>
-      <c r="O76" s="2">
-        <v>0</v>
-      </c>
-      <c r="P76" s="12">
+      <c r="R76" s="2">
+        <v>0</v>
+      </c>
+      <c r="S76" s="12">
         <v>0.76</v>
       </c>
-      <c r="Q76" s="2">
+      <c r="T76" s="2">
         <v>5</v>
       </c>
-      <c r="R76" s="2" t="s">
+      <c r="U76" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S76" s="2" t="s">
+      <c r="V76" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T76" s="2" t="s">
+      <c r="W76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U76" s="2">
-        <v>0</v>
-      </c>
-      <c r="V76" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>179</v>
       </c>
@@ -6403,55 +7122,64 @@
         <v>0.34017740000000002</v>
       </c>
       <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>20.316290808787119</v>
+      </c>
+      <c r="K77" s="2">
         <v>10.7</v>
       </c>
-      <c r="I77" s="2">
+      <c r="L77" s="2">
         <v>10</v>
       </c>
-      <c r="J77" s="2">
+      <c r="M77" s="2">
         <v>15.93</v>
       </c>
-      <c r="K77" s="2">
+      <c r="N77" s="2">
         <v>8.67</v>
       </c>
-      <c r="L77" s="2">
+      <c r="O77" s="2">
         <v>857.1</v>
       </c>
-      <c r="M77" s="2">
+      <c r="P77" s="2">
         <v>8142.45</v>
       </c>
-      <c r="N77" s="2">
+      <c r="Q77" s="2">
         <v>0.60000000000000053</v>
       </c>
-      <c r="O77" s="2">
+      <c r="R77" s="2">
         <v>6.2999999999999989</v>
       </c>
-      <c r="P77" s="12">
+      <c r="S77" s="12">
         <v>1.0660000000000001</v>
       </c>
-      <c r="Q77" s="2">
+      <c r="T77" s="2">
         <v>7</v>
       </c>
-      <c r="R77" s="2" t="s">
+      <c r="U77" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="S77" s="2" t="s">
+      <c r="V77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T77" s="2" t="s">
+      <c r="W77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U77" s="2">
-        <v>0</v>
-      </c>
-      <c r="V77" s="2">
-        <v>0</v>
-      </c>
-      <c r="W77" s="2" t="s">
+      <c r="X77" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>181</v>
       </c>
@@ -6474,55 +7202,64 @@
         <v>0.40275100000000003</v>
       </c>
       <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>39.072593007118009</v>
+      </c>
+      <c r="K78" s="2">
         <v>10.8</v>
       </c>
-      <c r="I78" s="2">
+      <c r="L78" s="2">
         <v>9</v>
       </c>
-      <c r="J78" s="2">
+      <c r="M78" s="2">
         <v>58.03</v>
       </c>
-      <c r="K78" s="2">
+      <c r="N78" s="2">
         <v>7.6</v>
       </c>
-      <c r="L78" s="2">
+      <c r="O78" s="2">
         <v>801.5</v>
       </c>
-      <c r="M78" s="2">
+      <c r="P78" s="2">
         <v>11060.7</v>
       </c>
-      <c r="N78" s="2">
+      <c r="Q78" s="2">
         <v>0.90000000000000036</v>
       </c>
-      <c r="O78" s="2">
-        <v>0</v>
-      </c>
-      <c r="P78" s="12">
+      <c r="R78" s="2">
+        <v>0</v>
+      </c>
+      <c r="S78" s="12">
         <v>0.71099999999999997</v>
       </c>
-      <c r="Q78" s="2">
+      <c r="T78" s="2">
         <v>5</v>
       </c>
-      <c r="R78" s="2" t="s">
+      <c r="U78" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S78" s="2" t="s">
+      <c r="V78" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T78" s="2" t="s">
+      <c r="W78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U78" s="2">
-        <v>0</v>
-      </c>
-      <c r="V78" s="2">
-        <v>0</v>
-      </c>
-      <c r="W78" s="2" t="s">
+      <c r="X78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>183</v>
       </c>
@@ -6545,55 +7282,64 @@
         <v>0.41446480000000002</v>
       </c>
       <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>37.002122834673607</v>
+      </c>
+      <c r="K79" s="2">
         <v>10.8</v>
       </c>
-      <c r="I79" s="2">
+      <c r="L79" s="2">
         <v>15</v>
       </c>
-      <c r="J79" s="2">
+      <c r="M79" s="2">
         <v>62.33</v>
       </c>
-      <c r="K79" s="2">
+      <c r="N79" s="2">
         <v>7.53</v>
       </c>
-      <c r="L79" s="2">
+      <c r="O79" s="2">
         <v>1003</v>
       </c>
-      <c r="M79" s="2">
+      <c r="P79" s="2">
         <v>13841.4</v>
       </c>
-      <c r="N79" s="2">
+      <c r="Q79" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O79" s="2">
+      <c r="R79" s="2">
         <v>1</v>
       </c>
-      <c r="P79" s="12">
+      <c r="S79" s="12">
         <v>0.58599999999999997</v>
       </c>
-      <c r="Q79" s="2">
+      <c r="T79" s="2">
         <v>5</v>
       </c>
-      <c r="R79" s="2" t="s">
+      <c r="U79" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S79" s="2" t="s">
+      <c r="V79" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T79" s="2" t="s">
+      <c r="W79" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U79" s="2">
-        <v>0</v>
-      </c>
-      <c r="V79" s="2">
-        <v>0</v>
-      </c>
-      <c r="W79" s="2" t="s">
+      <c r="X79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>184</v>
       </c>
@@ -6616,52 +7362,61 @@
         <v>0.40306140000000001</v>
       </c>
       <c r="H80" s="2">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2">
+        <v>56.625276327854927</v>
+      </c>
+      <c r="K80" s="2">
         <v>12.6</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>35</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>51.07</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>8.25</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>275.3</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>2367.58</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>0.90000000000000036</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>7.4</v>
       </c>
-      <c r="P80" s="12">
+      <c r="S80" s="12">
         <v>0.83</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>2</v>
       </c>
-      <c r="R80" s="2" t="s">
+      <c r="U80" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="S80" s="2" t="s">
+      <c r="V80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T80" s="2" t="s">
+      <c r="W80" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U80" s="2">
-        <v>0</v>
-      </c>
-      <c r="V80" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>186</v>
       </c>
@@ -6684,52 +7439,61 @@
         <v>0.35297139999999999</v>
       </c>
       <c r="H81" s="2">
+        <v>1</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>61.136628507989201</v>
+      </c>
+      <c r="K81" s="2">
         <v>13.1</v>
       </c>
-      <c r="I81" s="2">
+      <c r="L81" s="2">
         <v>43</v>
       </c>
-      <c r="J81" s="2">
+      <c r="M81" s="2">
         <v>28.13</v>
       </c>
-      <c r="K81" s="2">
+      <c r="N81" s="2">
         <v>7.88</v>
       </c>
-      <c r="L81" s="2">
+      <c r="O81" s="2">
         <v>400.9</v>
       </c>
-      <c r="M81" s="2">
+      <c r="P81" s="2">
         <v>3808.55</v>
       </c>
-      <c r="N81" s="2">
+      <c r="Q81" s="2">
         <v>0.40000000000000041</v>
       </c>
-      <c r="O81" s="2">
+      <c r="R81" s="2">
         <v>2.4</v>
       </c>
-      <c r="P81" s="12">
+      <c r="S81" s="12">
         <v>0.57399999999999995</v>
       </c>
-      <c r="Q81" s="2">
+      <c r="T81" s="2">
         <v>6</v>
       </c>
-      <c r="R81" s="2" t="s">
+      <c r="U81" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="S81" s="2" t="s">
+      <c r="V81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T81" s="2" t="s">
+      <c r="W81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U81" s="2">
-        <v>0</v>
-      </c>
-      <c r="V81" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X81" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>187</v>
       </c>
@@ -6752,52 +7516,61 @@
         <v>0.4227284</v>
       </c>
       <c r="H82" s="2">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>50.894684170798513</v>
+      </c>
+      <c r="K82" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="I82" s="2">
+      <c r="L82" s="2">
         <v>4</v>
       </c>
-      <c r="J82" s="2">
+      <c r="M82" s="2">
         <v>70.47</v>
       </c>
-      <c r="K82" s="2">
+      <c r="N82" s="2">
         <v>7.35</v>
       </c>
-      <c r="L82" s="2">
+      <c r="O82" s="2">
         <v>323.2</v>
       </c>
-      <c r="M82" s="2">
+      <c r="P82" s="2">
         <v>2779.52</v>
       </c>
-      <c r="N82" s="2">
+      <c r="Q82" s="2">
         <v>2.5</v>
       </c>
-      <c r="O82" s="2">
+      <c r="R82" s="2">
         <v>7.6999999999999993</v>
       </c>
-      <c r="P82" s="12">
+      <c r="S82" s="12">
         <v>0.64</v>
       </c>
-      <c r="Q82" s="2">
+      <c r="T82" s="2">
         <v>4</v>
       </c>
-      <c r="R82" s="2" t="s">
+      <c r="U82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="S82" s="2" t="s">
+      <c r="V82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T82" s="2" t="s">
+      <c r="W82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U82" s="2">
-        <v>0</v>
-      </c>
-      <c r="V82" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>188</v>
       </c>
@@ -6820,55 +7593,64 @@
         <v>0.42228559999999998</v>
       </c>
       <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>48.117581711668933</v>
+      </c>
+      <c r="K83" s="2">
         <v>15.7</v>
       </c>
-      <c r="I83" s="2">
+      <c r="L83" s="2">
         <v>9</v>
       </c>
-      <c r="J83" s="2">
+      <c r="M83" s="2">
         <v>77.77</v>
       </c>
-      <c r="K83" s="2">
+      <c r="N83" s="2">
         <v>7.39</v>
       </c>
-      <c r="L83" s="2">
+      <c r="O83" s="2">
         <v>344.1</v>
       </c>
-      <c r="M83" s="2">
+      <c r="P83" s="2">
         <v>3268.95</v>
       </c>
-      <c r="N83" s="2">
+      <c r="Q83" s="2">
         <v>1.100000000000001</v>
       </c>
-      <c r="O83" s="2">
-        <v>0</v>
-      </c>
-      <c r="P83" s="12">
+      <c r="R83" s="2">
+        <v>0</v>
+      </c>
+      <c r="S83" s="12">
         <v>0.371</v>
       </c>
-      <c r="Q83" s="2">
+      <c r="T83" s="2">
         <v>3</v>
       </c>
-      <c r="R83" s="2" t="s">
+      <c r="U83" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S83" s="2" t="s">
+      <c r="V83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T83" s="2" t="s">
+      <c r="W83" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U83" s="2">
+      <c r="X83" s="2">
         <v>1</v>
       </c>
-      <c r="V83" s="2">
-        <v>0</v>
-      </c>
-      <c r="W83" s="2" t="s">
+      <c r="Y83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>190</v>
       </c>
@@ -6891,52 +7673,61 @@
         <v>0.36554579999999998</v>
       </c>
       <c r="H84" s="2">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>50.901038365205942</v>
+      </c>
+      <c r="K84" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I84" s="2">
+      <c r="L84" s="2">
         <v>47</v>
       </c>
-      <c r="J84" s="2">
+      <c r="M84" s="2">
         <v>21</v>
       </c>
-      <c r="K84" s="2">
+      <c r="N84" s="2">
         <v>7.61</v>
       </c>
-      <c r="L84" s="2">
+      <c r="O84" s="2">
         <v>458.5</v>
       </c>
-      <c r="M84" s="2">
+      <c r="P84" s="2">
         <v>4355.75</v>
       </c>
-      <c r="N84" s="2">
+      <c r="Q84" s="2">
         <v>0.60000000000000053</v>
       </c>
-      <c r="O84" s="2">
+      <c r="R84" s="2">
         <v>0.30000000000000032</v>
       </c>
-      <c r="P84" s="12">
+      <c r="S84" s="12">
         <v>0.46</v>
       </c>
-      <c r="Q84" s="2">
+      <c r="T84" s="2">
         <v>5</v>
       </c>
-      <c r="R84" s="2" t="s">
+      <c r="U84" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S84" s="2" t="s">
+      <c r="V84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T84" s="2" t="s">
+      <c r="W84" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U84" s="2">
-        <v>0</v>
-      </c>
-      <c r="V84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>191</v>
       </c>
@@ -6959,52 +7750,61 @@
         <v>0.36333919999999997</v>
       </c>
       <c r="H85" s="2">
+        <v>1</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>53.453644727103672</v>
+      </c>
+      <c r="K85" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I85" s="2">
+      <c r="L85" s="2">
         <v>11</v>
       </c>
-      <c r="J85" s="2">
+      <c r="M85" s="2">
         <v>10.130000000000001</v>
       </c>
-      <c r="K85" s="2">
+      <c r="N85" s="2">
         <v>7.72</v>
       </c>
-      <c r="L85" s="2">
+      <c r="O85" s="2">
         <v>311</v>
       </c>
-      <c r="M85" s="2">
+      <c r="P85" s="2">
         <v>2954.5</v>
       </c>
-      <c r="N85" s="2">
+      <c r="Q85" s="2">
         <v>0.70000000000000018</v>
       </c>
-      <c r="O85" s="2">
-        <v>0</v>
-      </c>
-      <c r="P85" s="12">
+      <c r="R85" s="2">
+        <v>0</v>
+      </c>
+      <c r="S85" s="12">
         <v>0.65600000000000003</v>
       </c>
-      <c r="Q85" s="2">
+      <c r="T85" s="2">
         <v>5</v>
       </c>
-      <c r="R85" s="2" t="s">
+      <c r="U85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S85" s="2" t="s">
+      <c r="V85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T85" s="2" t="s">
+      <c r="W85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U85" s="2">
-        <v>0</v>
-      </c>
-      <c r="V85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>192</v>
       </c>
@@ -7027,55 +7827,64 @@
         <v>0.39318249999999999</v>
       </c>
       <c r="H86" s="2">
+        <v>1</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
+        <v>45.788717172353678</v>
+      </c>
+      <c r="K86" s="2">
         <v>11.3</v>
       </c>
-      <c r="I86" s="2">
+      <c r="L86" s="2">
         <v>10</v>
       </c>
-      <c r="J86" s="2">
+      <c r="M86" s="2">
         <v>60.77</v>
       </c>
-      <c r="K86" s="2">
+      <c r="N86" s="2">
         <v>7.77</v>
       </c>
-      <c r="L86" s="2">
+      <c r="O86" s="2">
         <v>462.2</v>
       </c>
-      <c r="M86" s="2">
+      <c r="P86" s="2">
         <v>6378.3600000000006</v>
       </c>
-      <c r="N86" s="2">
+      <c r="Q86" s="2">
         <v>1.2</v>
       </c>
-      <c r="O86" s="2">
+      <c r="R86" s="2">
         <v>11.3</v>
       </c>
-      <c r="P86" s="12">
+      <c r="S86" s="12">
         <v>0.70399999999999996</v>
       </c>
-      <c r="Q86" s="2">
+      <c r="T86" s="2">
         <v>6</v>
       </c>
-      <c r="R86" s="2" t="s">
+      <c r="U86" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="S86" s="2" t="s">
+      <c r="V86" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T86" s="2" t="s">
+      <c r="W86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U86" s="2">
-        <v>0</v>
-      </c>
-      <c r="V86" s="2">
-        <v>0</v>
-      </c>
-      <c r="W86" s="2" t="s">
+      <c r="X86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>195</v>
       </c>
@@ -7098,52 +7907,61 @@
         <v>0.34695999999999999</v>
       </c>
       <c r="H87" s="2">
+        <v>1</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2">
+        <v>50.276344275863863</v>
+      </c>
+      <c r="K87" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="I87" s="2">
+      <c r="L87" s="2">
         <v>47</v>
       </c>
-      <c r="J87" s="2">
+      <c r="M87" s="2">
         <v>46.57</v>
       </c>
-      <c r="K87" s="2">
+      <c r="N87" s="2">
         <v>9.17</v>
       </c>
-      <c r="L87" s="2">
+      <c r="O87" s="2">
         <v>1150</v>
       </c>
-      <c r="M87" s="2">
+      <c r="P87" s="2">
         <v>15870</v>
       </c>
-      <c r="N87" s="2">
+      <c r="Q87" s="2">
         <v>0.20000000000000021</v>
       </c>
-      <c r="O87" s="2">
+      <c r="R87" s="2">
         <v>5.7999999999999989</v>
       </c>
-      <c r="P87" s="12">
+      <c r="S87" s="12">
         <v>1.2749999999999999</v>
       </c>
-      <c r="Q87" s="2">
+      <c r="T87" s="2">
         <v>5</v>
       </c>
-      <c r="R87" s="2" t="s">
+      <c r="U87" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="S87" s="2" t="s">
+      <c r="V87" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T87" s="2" t="s">
+      <c r="W87" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U87" s="2">
-        <v>0</v>
-      </c>
-      <c r="V87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X87" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>197</v>
       </c>
@@ -7166,52 +7984,61 @@
         <v>0.34255839999999999</v>
       </c>
       <c r="H88" s="13">
+        <v>1</v>
+      </c>
+      <c r="I88" s="13">
+        <v>0</v>
+      </c>
+      <c r="J88" s="13">
+        <v>44.814737140680243</v>
+      </c>
+      <c r="K88" s="13">
         <v>14.4</v>
       </c>
-      <c r="I88" s="13">
+      <c r="L88" s="13">
         <v>77</v>
       </c>
-      <c r="J88" s="13">
+      <c r="M88" s="13">
         <v>56.27</v>
       </c>
-      <c r="K88" s="13">
+      <c r="N88" s="13">
         <v>9.1</v>
       </c>
-      <c r="L88" s="13">
+      <c r="O88" s="13">
         <v>5010</v>
       </c>
-      <c r="M88" s="13">
+      <c r="P88" s="13">
         <v>47595</v>
       </c>
-      <c r="N88" s="13">
+      <c r="Q88" s="13">
         <v>0.20000000000000021</v>
       </c>
-      <c r="O88" s="13">
+      <c r="R88" s="13">
         <v>6.5</v>
       </c>
-      <c r="P88" s="16">
+      <c r="S88" s="16">
         <v>1.083</v>
       </c>
-      <c r="Q88" s="13">
+      <c r="T88" s="13">
         <v>6</v>
       </c>
-      <c r="R88" s="13" t="s">
+      <c r="U88" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="S88" s="13" t="s">
+      <c r="V88" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="T88" s="13" t="s">
+      <c r="W88" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="U88" s="13">
-        <v>0</v>
-      </c>
-      <c r="V88" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X88" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>198</v>
       </c>
@@ -7234,52 +8061,61 @@
         <v>0.40466489999999999</v>
       </c>
       <c r="H89" s="2">
+        <v>1</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2">
+        <v>47.84219454350319</v>
+      </c>
+      <c r="K89" s="2">
         <v>19.5</v>
       </c>
-      <c r="I89" s="2">
+      <c r="L89" s="2">
         <v>8</v>
       </c>
-      <c r="J89" s="2">
+      <c r="M89" s="2">
         <v>49.8</v>
       </c>
-      <c r="K89" s="2">
+      <c r="N89" s="2">
         <v>8.1199999999999992</v>
       </c>
-      <c r="L89" s="2">
+      <c r="O89" s="2">
         <v>821.1</v>
       </c>
-      <c r="M89" s="2">
+      <c r="P89" s="2">
         <v>7800.45</v>
       </c>
-      <c r="N89" s="2">
+      <c r="Q89" s="2">
         <v>1.7</v>
       </c>
-      <c r="O89" s="2">
-        <v>0</v>
-      </c>
-      <c r="P89" s="12">
+      <c r="R89" s="2">
+        <v>0</v>
+      </c>
+      <c r="S89" s="12">
         <v>0.76300000000000001</v>
       </c>
-      <c r="Q89" s="2">
+      <c r="T89" s="2">
         <v>5</v>
       </c>
-      <c r="R89" s="2" t="s">
+      <c r="U89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S89" s="2" t="s">
+      <c r="V89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T89" s="2" t="s">
+      <c r="W89" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U89" s="2">
-        <v>0</v>
-      </c>
-      <c r="V89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>199</v>
       </c>
@@ -7302,52 +8138,61 @@
         <v>0.34394920000000001</v>
       </c>
       <c r="H90" s="2">
+        <v>1</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2">
+        <v>41.014972643102283</v>
+      </c>
+      <c r="K90" s="2">
         <v>10.4</v>
       </c>
-      <c r="I90" s="2">
+      <c r="L90" s="2">
         <v>55</v>
       </c>
-      <c r="J90" s="2">
+      <c r="M90" s="2">
         <v>24.57</v>
       </c>
-      <c r="K90" s="2">
+      <c r="N90" s="2">
         <v>8.59</v>
       </c>
-      <c r="L90" s="2">
+      <c r="O90" s="2">
         <v>747.3</v>
       </c>
-      <c r="M90" s="2">
+      <c r="P90" s="2">
         <v>10312.74</v>
       </c>
-      <c r="N90" s="2">
+      <c r="Q90" s="2">
         <v>0.60000000000000053</v>
       </c>
-      <c r="O90" s="2">
-        <v>0</v>
-      </c>
-      <c r="P90" s="12">
+      <c r="R90" s="2">
+        <v>0</v>
+      </c>
+      <c r="S90" s="12">
         <v>0.95499999999999996</v>
       </c>
-      <c r="Q90" s="2">
+      <c r="T90" s="2">
         <v>6</v>
       </c>
-      <c r="R90" s="2" t="s">
+      <c r="U90" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="S90" s="2" t="s">
+      <c r="V90" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T90" s="2" t="s">
+      <c r="W90" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U90" s="2">
-        <v>0</v>
-      </c>
-      <c r="V90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>200</v>
       </c>
@@ -7370,68 +8215,77 @@
         <v>0.34047319999999998</v>
       </c>
       <c r="H91" s="2">
+        <v>1</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>35.292453026644438</v>
+      </c>
+      <c r="K91" s="2">
         <v>12.7</v>
       </c>
-      <c r="I91" s="2">
+      <c r="L91" s="2">
         <v>44</v>
       </c>
-      <c r="J91" s="2">
+      <c r="M91" s="2">
         <v>20.2</v>
       </c>
-      <c r="K91" s="2">
+      <c r="N91" s="2">
         <v>8.7100000000000009</v>
       </c>
-      <c r="L91" s="2">
+      <c r="O91" s="2">
         <v>569.4</v>
       </c>
-      <c r="M91" s="2">
+      <c r="P91" s="2">
         <v>7857.72</v>
       </c>
-      <c r="N91" s="2">
-        <v>0</v>
-      </c>
-      <c r="O91" s="2">
+      <c r="Q91" s="2">
+        <v>0</v>
+      </c>
+      <c r="R91" s="2">
         <v>13.9</v>
       </c>
-      <c r="P91" s="12">
+      <c r="S91" s="12">
         <v>1.24</v>
       </c>
-      <c r="Q91" s="2">
+      <c r="T91" s="2">
         <v>6</v>
       </c>
-      <c r="R91" s="2" t="s">
+      <c r="U91" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="S91" s="2" t="s">
+      <c r="V91" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T91" s="2" t="s">
+      <c r="W91" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U91" s="2">
-        <v>0</v>
-      </c>
-      <c r="V91" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
@@ -11064,6 +11918,11 @@
       <c r="C1003" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:J91">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>53</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/2.Data/EnvironmentalData.xlsx
+++ b/2.Data/EnvironmentalData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/evert_sprockel_wur_nl/Documents/5.Wageningen/7.Thesis/7.DataAnalysis/ThesisRAnalysis/2.Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="11_38AE230EADFB0BBDC981F51D93740FD6917D560E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{324A90DD-9D0D-4C07-A165-4ADAD1BD0711}"/>
+  <xr:revisionPtr revIDLastSave="446" documentId="11_38AE230EADFB0BBDC981F51D93740FD6917D560E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3274617-3536-47D5-80AE-A148136BEA5C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>sunny</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>5Y4/1</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>S1T1P2</t>
   </si>
   <si>
-    <t>thufur</t>
-  </si>
-  <si>
     <t>2.5Y5/6;2.5Y3/3</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>S1T1P3</t>
   </si>
   <si>
-    <t>hollow</t>
-  </si>
-  <si>
     <t>10YR5/6</t>
   </si>
   <si>
@@ -778,6 +769,15 @@
   </si>
   <si>
     <t>Contrast</t>
+  </si>
+  <si>
+    <t>Thufur</t>
+  </si>
+  <si>
+    <t>Hollow</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -788,11 +788,18 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,47 +864,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1125,11 +1123,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1181,61 +1179,61 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="U1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>6</v>
@@ -1303,13 +1301,13 @@
         <v>4</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X2" s="2">
         <v>1</v>
@@ -1318,12 +1316,12 @@
         <v>0</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
         <v>45524</v>
@@ -1383,13 +1381,13 @@
         <v>3</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X3" s="2">
         <v>0</v>
@@ -1400,7 +1398,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>45524</v>
@@ -1460,13 +1458,13 @@
         <v>5</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="X4" s="2">
         <v>0</v>
@@ -1477,7 +1475,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3">
         <v>45524</v>
@@ -1492,7 +1490,7 @@
         <v>78.014341000000002</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2">
         <v>0.36745040000000001</v>
@@ -1537,13 +1535,13 @@
         <v>5</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X5" s="2">
         <v>0</v>
@@ -1554,7 +1552,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3">
         <v>45524</v>
@@ -1569,7 +1567,7 @@
         <v>78.014529999999993</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2">
         <v>0.3773705</v>
@@ -1614,13 +1612,13 @@
         <v>3</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X6" s="2">
         <v>1</v>
@@ -1629,12 +1627,12 @@
         <v>0</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3">
         <v>45524</v>
@@ -1694,13 +1692,13 @@
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X7" s="2">
         <v>0</v>
@@ -1709,12 +1707,12 @@
         <v>0</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3">
         <v>45524</v>
@@ -1774,13 +1772,13 @@
         <v>6</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X8" s="2">
         <v>0</v>
@@ -1791,7 +1789,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
         <v>45524</v>
@@ -1851,13 +1849,13 @@
         <v>4</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X9" s="2">
         <v>0</v>
@@ -1866,12 +1864,12 @@
         <v>0</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3">
         <v>45524</v>
@@ -1931,13 +1929,13 @@
         <v>2</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
@@ -1946,12 +1944,12 @@
         <v>0</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3">
         <v>45524</v>
@@ -2011,13 +2009,13 @@
         <v>2</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
@@ -2028,7 +2026,7 @@
     </row>
     <row r="12" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="14">
         <v>45524</v>
@@ -2077,13 +2075,13 @@
         <v>2</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="V12" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W12" s="13" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X12" s="13">
         <v>0</v>
@@ -2092,12 +2090,12 @@
         <v>0</v>
       </c>
       <c r="Z12" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3">
         <v>45524</v>
@@ -2157,13 +2155,13 @@
         <v>3</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X13" s="2">
         <v>0</v>
@@ -2172,12 +2170,12 @@
         <v>0</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3">
         <v>45525</v>
@@ -2237,13 +2235,13 @@
         <v>5</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X14" s="2">
         <v>0</v>
@@ -2254,7 +2252,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3">
         <v>45525</v>
@@ -2314,13 +2312,13 @@
         <v>5</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X15" s="2">
         <v>0</v>
@@ -2329,12 +2327,12 @@
         <v>0</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3">
         <v>45525</v>
@@ -2394,13 +2392,13 @@
         <v>3</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X16" s="2">
         <v>0</v>
@@ -2411,7 +2409,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3">
         <v>45525</v>
@@ -2471,13 +2469,13 @@
         <v>3</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X17" s="2">
         <v>0</v>
@@ -2488,7 +2486,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3">
         <v>45525</v>
@@ -2548,13 +2546,13 @@
         <v>4</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X18" s="2">
         <v>0</v>
@@ -2563,12 +2561,12 @@
         <v>1</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3">
         <v>45525</v>
@@ -2628,13 +2626,13 @@
         <v>4</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X19" s="2">
         <v>0</v>
@@ -2645,7 +2643,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3">
         <v>45525</v>
@@ -2660,7 +2658,7 @@
         <v>78.012595000000005</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G20" s="2">
         <v>0.4592444</v>
@@ -2705,13 +2703,13 @@
         <v>5</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X20" s="2">
         <v>0</v>
@@ -2722,7 +2720,7 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="3">
         <v>45525</v>
@@ -2737,7 +2735,7 @@
         <v>78.012463999999994</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G21" s="2">
         <v>0.43910270000000001</v>
@@ -2782,13 +2780,13 @@
         <v>5</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X21" s="2">
         <v>0</v>
@@ -2799,7 +2797,7 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3">
         <v>45525</v>
@@ -2814,7 +2812,7 @@
         <v>78.012235000000004</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G22" s="2">
         <v>0.37114009999999997</v>
@@ -2859,13 +2857,13 @@
         <v>5</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X22" s="2">
         <v>0</v>
@@ -2874,12 +2872,12 @@
         <v>0</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B23" s="3">
         <v>45525</v>
@@ -2939,13 +2937,13 @@
         <v>5</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X23" s="2">
         <v>0</v>
@@ -2954,12 +2952,12 @@
         <v>1</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3">
         <v>45525</v>
@@ -2974,7 +2972,7 @@
         <v>78.011589000000001</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G24" s="2">
         <v>0.38502189999999997</v>
@@ -3019,13 +3017,13 @@
         <v>4</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X24" s="2">
         <v>0</v>
@@ -3034,12 +3032,12 @@
         <v>1</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3">
         <v>45525</v>
@@ -3054,7 +3052,7 @@
         <v>78.011266000000006</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G25" s="2">
         <v>0.34487250000000003</v>
@@ -3099,13 +3097,13 @@
         <v>5</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X25" s="2">
         <v>0</v>
@@ -3114,12 +3112,12 @@
         <v>0</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3">
         <v>45525</v>
@@ -3134,7 +3132,7 @@
         <v>78.017741999999998</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G26" s="2">
         <v>0.38738250000000002</v>
@@ -3179,13 +3177,13 @@
         <v>3</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X26" s="2">
         <v>0</v>
@@ -3196,7 +3194,7 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3">
         <v>45525</v>
@@ -3256,13 +3254,13 @@
         <v>4</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X27" s="2">
         <v>0</v>
@@ -3273,7 +3271,7 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B28" s="3">
         <v>45525</v>
@@ -3288,7 +3286,7 @@
         <v>78.017326999999995</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2">
         <v>0.40806890000000001</v>
@@ -3333,13 +3331,13 @@
         <v>2</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X28" s="2">
         <v>0</v>
@@ -3350,7 +3348,7 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3">
         <v>45525</v>
@@ -3365,7 +3363,7 @@
         <v>78.016858999999997</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G29" s="2">
         <v>0.34937820000000003</v>
@@ -3410,13 +3408,13 @@
         <v>5</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="X29" s="2">
         <v>1</v>
@@ -3425,12 +3423,12 @@
         <v>0</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B30" s="3">
         <v>45526</v>
@@ -3490,13 +3488,13 @@
         <v>3</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X30" s="2">
         <v>1</v>
@@ -3505,12 +3503,12 @@
         <v>0</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B31" s="3">
         <v>45526</v>
@@ -3570,13 +3568,13 @@
         <v>5</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X31" s="2">
         <v>0</v>
@@ -3587,7 +3585,7 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B32" s="3">
         <v>45526</v>
@@ -3641,13 +3639,13 @@
         <v>3</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X32" s="2">
         <v>1</v>
@@ -3656,12 +3654,12 @@
         <v>1</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B33" s="3">
         <v>45526</v>
@@ -3721,13 +3719,13 @@
         <v>2</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X33" s="2">
         <v>0</v>
@@ -3736,12 +3734,12 @@
         <v>0</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B34" s="3">
         <v>45526</v>
@@ -3801,13 +3799,13 @@
         <v>3</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X34" s="2">
         <v>0</v>
@@ -3816,12 +3814,12 @@
         <v>1</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B35" s="3">
         <v>45526</v>
@@ -3881,13 +3879,13 @@
         <v>5</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X35" s="2">
         <v>0</v>
@@ -3898,7 +3896,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B36" s="3">
         <v>45526</v>
@@ -3958,13 +3956,13 @@
         <v>4</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X36" s="2">
         <v>0</v>
@@ -3973,12 +3971,12 @@
         <v>0</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B37" s="3">
         <v>45526</v>
@@ -4038,13 +4036,13 @@
         <v>5</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X37" s="2">
         <v>0</v>
@@ -4053,12 +4051,12 @@
         <v>0</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B38" s="3">
         <v>45526</v>
@@ -4118,13 +4116,13 @@
         <v>2</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X38" s="2">
         <v>0</v>
@@ -4133,12 +4131,12 @@
         <v>1</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B39" s="3">
         <v>45526</v>
@@ -4198,13 +4196,13 @@
         <v>3</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X39" s="2">
         <v>0</v>
@@ -4213,12 +4211,12 @@
         <v>0</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="3">
         <v>45526</v>
@@ -4278,13 +4276,13 @@
         <v>3</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X40" s="2">
         <v>0</v>
@@ -4295,7 +4293,7 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B41" s="3">
         <v>45526</v>
@@ -4355,13 +4353,13 @@
         <v>3</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X41" s="2">
         <v>0</v>
@@ -4372,7 +4370,7 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B42" s="3">
         <v>45526</v>
@@ -4432,13 +4430,13 @@
         <v>4</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X42" s="2">
         <v>0</v>
@@ -4447,12 +4445,12 @@
         <v>1</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B43" s="3">
         <v>45526</v>
@@ -4467,7 +4465,7 @@
         <v>78.034763999999996</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G43" s="2">
         <v>0.3845964</v>
@@ -4512,13 +4510,13 @@
         <v>5</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X43" s="2">
         <v>0</v>
@@ -4527,12 +4525,12 @@
         <v>0</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B44" s="3">
         <v>45526</v>
@@ -4547,7 +4545,7 @@
         <v>78.038731999999996</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G44" s="2">
         <v>0.46868300000000002</v>
@@ -4592,13 +4590,13 @@
         <v>5</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X44" s="2">
         <v>0</v>
@@ -4609,7 +4607,7 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B45" s="3">
         <v>45526</v>
@@ -4624,7 +4622,7 @@
         <v>73.038055</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G45" s="2">
         <v>0.43202689999999999</v>
@@ -4669,13 +4667,13 @@
         <v>5</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X45" s="2">
         <v>0</v>
@@ -4686,7 +4684,7 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B46" s="3">
         <v>45526</v>
@@ -4746,13 +4744,13 @@
         <v>3</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X46" s="2">
         <v>0</v>
@@ -4763,7 +4761,7 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B47" s="3">
         <v>45534</v>
@@ -4778,7 +4776,7 @@
         <v>78.037305000000003</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G47" s="2">
         <v>0.44528329999999999</v>
@@ -4823,13 +4821,13 @@
         <v>3</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X47" s="2">
         <v>0</v>
@@ -4840,7 +4838,7 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B48" s="3">
         <v>45534</v>
@@ -4855,7 +4853,7 @@
         <v>78.036923999999999</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G48" s="2">
         <v>0.34134009999999998</v>
@@ -4900,13 +4898,13 @@
         <v>7</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="X48" s="2">
         <v>0</v>
@@ -4915,12 +4913,12 @@
         <v>1</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B49" s="3">
         <v>45534</v>
@@ -4980,13 +4978,13 @@
         <v>5</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X49" s="2">
         <v>0</v>
@@ -4997,7 +4995,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B50" s="3">
         <v>45534</v>
@@ -5057,13 +5055,13 @@
         <v>7</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X50" s="2">
         <v>0</v>
@@ -5072,12 +5070,12 @@
         <v>0</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B51" s="3">
         <v>45534</v>
@@ -5137,13 +5135,13 @@
         <v>6</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X51" s="2">
         <v>0</v>
@@ -5154,7 +5152,7 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B52" s="3">
         <v>45534</v>
@@ -5214,13 +5212,13 @@
         <v>5</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X52" s="2">
         <v>0</v>
@@ -5231,7 +5229,7 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B53" s="3">
         <v>45534</v>
@@ -5246,7 +5244,7 @@
         <v>78.036608999999999</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G53" s="2">
         <v>0.40565830000000003</v>
@@ -5291,13 +5289,13 @@
         <v>6</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X53" s="2">
         <v>0</v>
@@ -5308,7 +5306,7 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B54" s="3">
         <v>45534</v>
@@ -5323,7 +5321,7 @@
         <v>78.036979000000002</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G54" s="2">
         <v>0.3657514</v>
@@ -5368,13 +5366,13 @@
         <v>6</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X54" s="2">
         <v>0</v>
@@ -5383,12 +5381,12 @@
         <v>0</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B55" s="14">
         <v>45534</v>
@@ -5448,13 +5446,13 @@
         <v>5</v>
       </c>
       <c r="U55" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V55" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W55" s="13" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="X55" s="13">
         <v>1</v>
@@ -5463,12 +5461,12 @@
         <v>0</v>
       </c>
       <c r="Z55" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B56" s="3">
         <v>45534</v>
@@ -5483,7 +5481,7 @@
         <v>78.038932000000003</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G56" s="2">
         <v>0.42669780000000002</v>
@@ -5528,13 +5526,13 @@
         <v>4</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="X56" s="2">
         <v>0</v>
@@ -5545,7 +5543,7 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B57" s="3">
         <v>45534</v>
@@ -5560,7 +5558,7 @@
         <v>78.038629</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G57" s="2">
         <v>0.40291830000000001</v>
@@ -5605,13 +5603,13 @@
         <v>2</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X57" s="2">
         <v>1</v>
@@ -5620,12 +5618,12 @@
         <v>1</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B58" s="3">
         <v>45534</v>
@@ -5640,7 +5638,7 @@
         <v>78.038336999999999</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G58" s="2">
         <v>0.39139800000000002</v>
@@ -5685,13 +5683,13 @@
         <v>4</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X58" s="2">
         <v>0</v>
@@ -5702,7 +5700,7 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B59" s="3">
         <v>45534</v>
@@ -5762,13 +5760,13 @@
         <v>4</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X59" s="2">
         <v>0</v>
@@ -5777,12 +5775,12 @@
         <v>0</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B60" s="3">
         <v>45534</v>
@@ -5842,13 +5840,13 @@
         <v>6</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X60" s="2">
         <v>0</v>
@@ -5859,7 +5857,7 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B61" s="3">
         <v>45534</v>
@@ -5874,7 +5872,7 @@
         <v>78.035404999999997</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G61" s="2">
         <v>0.34031519999999998</v>
@@ -5919,13 +5917,13 @@
         <v>6</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X61" s="2">
         <v>0</v>
@@ -5936,7 +5934,7 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B62" s="3">
         <v>45535</v>
@@ -5996,13 +5994,13 @@
         <v>6</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X62" s="2">
         <v>0</v>
@@ -6013,7 +6011,7 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B63" s="3">
         <v>45535</v>
@@ -6073,13 +6071,13 @@
         <v>5</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X63" s="2">
         <v>0</v>
@@ -6090,7 +6088,7 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B64" s="3">
         <v>45535</v>
@@ -6105,7 +6103,7 @@
         <v>78.059225999999995</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G64" s="2">
         <v>0.37471589999999999</v>
@@ -6150,13 +6148,13 @@
         <v>7</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X64" s="2">
         <v>0</v>
@@ -6167,7 +6165,7 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B65" s="3">
         <v>45535</v>
@@ -6182,7 +6180,7 @@
         <v>78.059031000000004</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G65" s="2">
         <v>0.34128740000000002</v>
@@ -6227,13 +6225,13 @@
         <v>6</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X65" s="2">
         <v>0</v>
@@ -6242,12 +6240,12 @@
         <v>0</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B66" s="3">
         <v>45535</v>
@@ -6307,13 +6305,13 @@
         <v>7</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X66" s="2">
         <v>1</v>
@@ -6322,12 +6320,12 @@
         <v>0</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B67" s="3">
         <v>45535</v>
@@ -6342,7 +6340,7 @@
         <v>78.058368000000002</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G67" s="2">
         <v>0.38143379999999999</v>
@@ -6385,13 +6383,13 @@
       </c>
       <c r="T67" s="10"/>
       <c r="U67" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X67" s="2">
         <v>1</v>
@@ -6400,12 +6398,12 @@
         <v>0</v>
       </c>
       <c r="Z67" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B68" s="3">
         <v>45535</v>
@@ -6465,13 +6463,13 @@
         <v>5</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X68" s="2">
         <v>1</v>
@@ -6480,12 +6478,12 @@
         <v>0</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B69" s="3">
         <v>45535</v>
@@ -6545,13 +6543,13 @@
         <v>6</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="X69" s="2">
         <v>0</v>
@@ -6562,7 +6560,7 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B70" s="3">
         <v>45535</v>
@@ -6622,13 +6620,13 @@
         <v>5</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X70" s="2">
         <v>0</v>
@@ -6637,12 +6635,12 @@
         <v>0</v>
       </c>
       <c r="Z70" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B71" s="3">
         <v>45535</v>
@@ -6657,7 +6655,7 @@
         <v>78.059190000000001</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G71" s="2">
         <v>0.35153489999999998</v>
@@ -6702,13 +6700,13 @@
         <v>5</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X71" s="2">
         <v>0</v>
@@ -6719,7 +6717,7 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B72" s="3">
         <v>45535</v>
@@ -6734,7 +6732,7 @@
         <v>78.058739000000003</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G72" s="2">
         <v>0.40604040000000002</v>
@@ -6779,13 +6777,13 @@
         <v>7</v>
       </c>
       <c r="U72" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X72" s="2">
         <v>0</v>
@@ -6796,7 +6794,7 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B73" s="3">
         <v>45535</v>
@@ -6850,13 +6848,13 @@
         <v>3</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="X73" s="2">
         <v>1</v>
@@ -6865,12 +6863,12 @@
         <v>0</v>
       </c>
       <c r="Z73" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B74" s="3">
         <v>45535</v>
@@ -6885,7 +6883,7 @@
         <v>78.057182999999995</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G74" s="2">
         <v>0.35008889999999998</v>
@@ -6930,13 +6928,13 @@
         <v>7</v>
       </c>
       <c r="U74" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W74" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X74" s="2">
         <v>0</v>
@@ -6947,7 +6945,7 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B75" s="3">
         <v>45535</v>
@@ -7007,13 +7005,13 @@
         <v>6</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W75" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X75" s="2">
         <v>0</v>
@@ -7024,7 +7022,7 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B76" s="3">
         <v>45535</v>
@@ -7084,13 +7082,13 @@
         <v>5</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="X76" s="2">
         <v>0</v>
@@ -7101,7 +7099,7 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B77" s="3">
         <v>45535</v>
@@ -7116,7 +7114,7 @@
         <v>78.056336999999999</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G77" s="2">
         <v>0.34017740000000002</v>
@@ -7161,13 +7159,13 @@
         <v>7</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X77" s="2">
         <v>0</v>
@@ -7176,12 +7174,12 @@
         <v>0</v>
       </c>
       <c r="Z77" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B78" s="3">
         <v>45535</v>
@@ -7196,7 +7194,7 @@
         <v>78.055856000000006</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G78" s="2">
         <v>0.40275100000000003</v>
@@ -7241,13 +7239,13 @@
         <v>5</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X78" s="2">
         <v>0</v>
@@ -7256,12 +7254,12 @@
         <v>0</v>
       </c>
       <c r="Z78" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B79" s="3">
         <v>45535</v>
@@ -7276,7 +7274,7 @@
         <v>78.055674999999994</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G79" s="2">
         <v>0.41446480000000002</v>
@@ -7321,13 +7319,13 @@
         <v>5</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X79" s="2">
         <v>0</v>
@@ -7336,12 +7334,12 @@
         <v>0</v>
       </c>
       <c r="Z79" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B80" s="3">
         <v>45536</v>
@@ -7401,13 +7399,13 @@
         <v>2</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="X80" s="2">
         <v>0</v>
@@ -7418,7 +7416,7 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B81" s="3">
         <v>45536</v>
@@ -7433,7 +7431,7 @@
         <v>78.052369999999996</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G81" s="2">
         <v>0.35297139999999999</v>
@@ -7478,13 +7476,13 @@
         <v>6</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="X81" s="2">
         <v>0</v>
@@ -7495,7 +7493,7 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B82" s="3">
         <v>45536</v>
@@ -7555,13 +7553,13 @@
         <v>4</v>
       </c>
       <c r="U82" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W82" s="2" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="X82" s="2">
         <v>0</v>
@@ -7572,7 +7570,7 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B83" s="3">
         <v>45536</v>
@@ -7587,7 +7585,7 @@
         <v>78.052009999999996</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G83" s="2">
         <v>0.42228559999999998</v>
@@ -7632,13 +7630,13 @@
         <v>3</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="X83" s="2">
         <v>1</v>
@@ -7647,12 +7645,12 @@
         <v>0</v>
       </c>
       <c r="Z83" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B84" s="3">
         <v>45536</v>
@@ -7712,13 +7710,13 @@
         <v>5</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="X84" s="2">
         <v>0</v>
@@ -7729,7 +7727,7 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B85" s="3">
         <v>45536</v>
@@ -7789,13 +7787,13 @@
         <v>5</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X85" s="2">
         <v>0</v>
@@ -7806,7 +7804,7 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B86" s="3">
         <v>45536</v>
@@ -7866,13 +7864,13 @@
         <v>6</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X86" s="2">
         <v>0</v>
@@ -7881,12 +7879,12 @@
         <v>0</v>
       </c>
       <c r="Z86" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B87" s="3">
         <v>45536</v>
@@ -7946,13 +7944,13 @@
         <v>5</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="V87" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X87" s="2">
         <v>0</v>
@@ -7963,7 +7961,7 @@
     </row>
     <row r="88" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B88" s="14">
         <v>45536</v>
@@ -8023,13 +8021,13 @@
         <v>6</v>
       </c>
       <c r="U88" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V88" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W88" s="13" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X88" s="13">
         <v>0</v>
@@ -8040,7 +8038,7 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B89" s="3">
         <v>45536</v>
@@ -8100,13 +8098,13 @@
         <v>5</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V89" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W89" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X89" s="2">
         <v>0</v>
@@ -8117,7 +8115,7 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B90" s="3">
         <v>45536</v>
@@ -8177,13 +8175,13 @@
         <v>6</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V90" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W90" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X90" s="2">
         <v>0</v>
@@ -8194,7 +8192,7 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B91" s="3">
         <v>45536</v>
@@ -8254,13 +8252,13 @@
         <v>6</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="X91" s="2">
         <v>0</v>
@@ -11932,8 +11930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E773609-CAD2-4136-82CC-F9EF7F6894D9}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11945,16 +11943,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11962,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -11988,7 +11986,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -11998,7 +11996,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -12008,56 +12006,56 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12065,143 +12063,143 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" t="s">
-        <v>215</v>
+        <v>222</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/2.Data/EnvironmentalData.xlsx
+++ b/2.Data/EnvironmentalData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/evert_sprockel_wur_nl/Documents/5.Wageningen/7.Thesis/7.DataAnalysis/ThesisRAnalysis/2.Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="446" documentId="11_38AE230EADFB0BBDC981F51D93740FD6917D560E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3274617-3536-47D5-80AE-A148136BEA5C}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="11_38AE230EADFB0BBDC981F51D93740FD6917D560E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26909E3C-D5B0-4E5E-9000-CD9E25202255}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -784,9 +784,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -864,19 +865,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -886,11 +881,16 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,17 +1123,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
@@ -1159,7 +1159,7 @@
     <col min="27" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,10 +1169,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1249,10 +1249,10 @@
       <c r="C2" s="3">
         <v>0.71597222222044365</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="18">
         <v>33.362797</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="18">
         <v>78.013929000000005</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1294,7 +1294,7 @@
       <c r="R2" s="2">
         <v>2.9</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="10">
         <v>0.32</v>
       </c>
       <c r="T2" s="2">
@@ -1329,10 +1329,10 @@
       <c r="C3" s="3">
         <v>0.27500000000145519</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="18">
         <v>33.362717000000004</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="18">
         <v>78.013930000000002</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1374,7 +1374,7 @@
       <c r="R3" s="2">
         <v>2.8</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="10">
         <v>0.33500000000000002</v>
       </c>
       <c r="T3" s="2">
@@ -1406,10 +1406,10 @@
       <c r="C4" s="3">
         <v>0.29722222222335398</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>33.362817999999997</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>78.014286999999996</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1451,7 +1451,7 @@
       <c r="R4" s="2">
         <v>1.7</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="10">
         <v>0.36299999999999999</v>
       </c>
       <c r="T4" s="2">
@@ -1483,10 +1483,10 @@
       <c r="C5" s="3">
         <v>0.31805555555547471</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>33.362909000000002</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>78.014341000000002</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1528,7 +1528,7 @@
       <c r="R5" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="10">
         <v>0.91700000000000004</v>
       </c>
       <c r="T5" s="2">
@@ -1560,10 +1560,10 @@
       <c r="C6" s="3">
         <v>0.33402777777882869</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>33.362923000000002</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>78.014529999999993</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1605,7 +1605,7 @@
       <c r="R6" s="2">
         <v>1.6</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="10">
         <v>0.59099999999999997</v>
       </c>
       <c r="T6" s="2">
@@ -1640,10 +1640,10 @@
       <c r="C7" s="3">
         <v>0.35416666666787933</v>
       </c>
-      <c r="D7" s="5">
-        <v>33.360169999999997</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7">
+        <v>33.362940000000002</v>
+      </c>
+      <c r="E7">
         <v>78.014574999999994</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1685,7 +1685,7 @@
       <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="10">
         <v>0.14299999999999999</v>
       </c>
       <c r="T7" s="2">
@@ -1720,10 +1720,10 @@
       <c r="C8" s="3">
         <v>0.45833333333212067</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>33.364758999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>78.014992000000007</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1765,7 +1765,7 @@
       <c r="R8" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="10">
         <v>0.61099999999999999</v>
       </c>
       <c r="T8" s="2">
@@ -1797,10 +1797,10 @@
       <c r="C9" s="3">
         <v>0.48472222222335398</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>33.364635</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>78.014793999999995</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1842,7 +1842,7 @@
       <c r="R9" s="2">
         <v>0</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="10">
         <v>0.39200000000000002</v>
       </c>
       <c r="T9" s="2">
@@ -1877,10 +1877,10 @@
       <c r="C10" s="3">
         <v>0.50277777777955635</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>33.364545</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>78.014525000000006</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1922,7 +1922,7 @@
       <c r="R10" s="2">
         <v>0</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="10">
         <v>0.20599999999999999</v>
       </c>
       <c r="T10" s="2">
@@ -1957,10 +1957,10 @@
       <c r="C11" s="3">
         <v>0.52430555555474712</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>33.364282000000003</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>78.014080000000007</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -2002,7 +2002,7 @@
       <c r="R11" s="2">
         <v>0</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="10">
         <v>0.21199999999999999</v>
       </c>
       <c r="T11" s="2">
@@ -2024,72 +2024,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>45524</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>0.54513888889050577</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <v>33.3643</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="16">
         <v>78.0137</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <v>0.38740849999999999</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <v>1</v>
       </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
         <v>47.778618199832238</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="11">
         <v>21.5</v>
       </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
         <v>94.8</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="11">
         <v>0.10000000000000051</v>
       </c>
-      <c r="R12" s="13">
-        <v>0</v>
-      </c>
-      <c r="S12" s="16"/>
-      <c r="T12" s="13">
+      <c r="R12" s="11">
+        <v>0</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="11">
         <v>2</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="U12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="13" t="s">
+      <c r="V12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="W12" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="X12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="13" t="s">
+      <c r="X12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2103,10 +2103,10 @@
       <c r="C13" s="3">
         <v>0.56597222222262644</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="15">
         <v>33.364100000000001</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="15">
         <v>78.013099999999994</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2148,7 +2148,7 @@
       <c r="R13" s="2">
         <v>0</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="10">
         <v>0.25900000000000001</v>
       </c>
       <c r="T13" s="2">
@@ -2183,11 +2183,11 @@
       <c r="C14" s="3">
         <v>0.29166666666787933</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="15">
         <v>33.365900000000003</v>
       </c>
-      <c r="E14" s="5">
-        <v>78.103499999999997</v>
+      <c r="E14" s="15">
+        <v>78.013499999999993</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -2228,7 +2228,7 @@
       <c r="R14" s="2">
         <v>4.3000000000000007</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="10">
         <v>0.67</v>
       </c>
       <c r="T14" s="2">
@@ -2260,10 +2260,10 @@
       <c r="C15" s="3">
         <v>0.29166666666787933</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="15">
         <v>33.36551</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="15">
         <v>78.012991</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2305,7 +2305,7 @@
       <c r="R15" s="2">
         <v>1.9</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="10">
         <v>0.42699999999999999</v>
       </c>
       <c r="T15" s="2">
@@ -2340,10 +2340,10 @@
       <c r="C16" s="3">
         <v>0.37847222222262639</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="15">
         <v>33.365276999999999</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="15">
         <v>78.012558999999996</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2385,7 +2385,7 @@
       <c r="R16" s="2">
         <v>0</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="10">
         <v>0.2</v>
       </c>
       <c r="T16" s="2">
@@ -2417,10 +2417,10 @@
       <c r="C17" s="3">
         <v>0.3875000000007276</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="15">
         <v>33.365189000000001</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="15">
         <v>78.012264999999999</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2462,7 +2462,7 @@
       <c r="R17" s="2">
         <v>0.80000000000000027</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="10">
         <v>0.28999999999999998</v>
       </c>
       <c r="T17" s="2">
@@ -2494,10 +2494,10 @@
       <c r="C18" s="3">
         <v>0.41319444444525288</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="15">
         <v>33.365020999999999</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="15">
         <v>78.011865999999998</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -2539,7 +2539,7 @@
       <c r="R18" s="2">
         <v>3.6</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="10">
         <v>0.60799999999999998</v>
       </c>
       <c r="T18" s="2">
@@ -2574,10 +2574,10 @@
       <c r="C19" s="3">
         <v>0.42847222222189879</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="15">
         <v>33.364702999999999</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="15">
         <v>78.011644000000004</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2619,7 +2619,7 @@
       <c r="R19" s="2">
         <v>5</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="10">
         <v>0.52200000000000002</v>
       </c>
       <c r="T19" s="2">
@@ -2651,10 +2651,10 @@
       <c r="C20" s="3">
         <v>0.47916666666787933</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="15">
         <v>33.367213999999997</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="15">
         <v>78.012595000000005</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2696,7 +2696,7 @@
       <c r="R20" s="2">
         <v>0</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="10">
         <v>0.245</v>
       </c>
       <c r="T20" s="2">
@@ -2728,10 +2728,10 @@
       <c r="C21" s="3">
         <v>0.5</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="15">
         <v>33.367156000000001</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="15">
         <v>78.012463999999994</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2773,7 +2773,7 @@
       <c r="R21" s="2">
         <v>0</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="10">
         <v>0.29499999999999998</v>
       </c>
       <c r="T21" s="2">
@@ -2805,10 +2805,10 @@
       <c r="C22" s="3">
         <v>0.52291666666496894</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="15">
         <v>33.367097999999999</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="15">
         <v>78.012235000000004</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2850,7 +2850,7 @@
       <c r="R22" s="2">
         <v>0</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="10">
         <v>0.254</v>
       </c>
       <c r="T22" s="2">
@@ -2885,10 +2885,10 @@
       <c r="C23" s="3">
         <v>0.54166666666787933</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="15">
         <v>33.366849999999999</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="15">
         <v>78.011932999999999</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2930,7 +2930,7 @@
       <c r="R23" s="2">
         <v>0</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="10">
         <v>0.10199999999999999</v>
       </c>
       <c r="T23" s="2">
@@ -2965,10 +2965,10 @@
       <c r="C24" s="3">
         <v>0.56666666666569654</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="15">
         <v>33.366729999999997</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="15">
         <v>78.011589000000001</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -3010,7 +3010,7 @@
       <c r="R24" s="2">
         <v>0</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S24" s="10">
         <v>0.26900000000000002</v>
       </c>
       <c r="T24" s="2">
@@ -3045,10 +3045,10 @@
       <c r="C25" s="3">
         <v>0.59027777777737356</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="15">
         <v>33.366579000000002</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="15">
         <v>78.011266000000006</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -3090,7 +3090,7 @@
       <c r="R25" s="2">
         <v>3.7</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S25" s="10">
         <v>0.89100000000000001</v>
       </c>
       <c r="T25" s="2">
@@ -3125,10 +3125,10 @@
       <c r="C26" s="3">
         <v>0.72569444444525288</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="15">
         <v>33.361778000000001</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="15">
         <v>78.017741999999998</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -3170,7 +3170,7 @@
       <c r="R26" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S26" s="12">
+      <c r="S26" s="10">
         <v>0.38600000000000001</v>
       </c>
       <c r="T26" s="2">
@@ -3202,10 +3202,10 @@
       <c r="C27" s="3">
         <v>0.75</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="15">
         <v>33.361705000000001</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="15">
         <v>78.017511999999996</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -3247,7 +3247,7 @@
       <c r="R27" s="2">
         <v>0</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="10">
         <v>0.33800000000000002</v>
       </c>
       <c r="T27" s="2">
@@ -3279,10 +3279,10 @@
       <c r="C28" s="3">
         <v>0.77083333333212067</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="15">
         <v>33.361527000000002</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="15">
         <v>78.017326999999995</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -3324,7 +3324,7 @@
       <c r="R28" s="2">
         <v>0</v>
       </c>
-      <c r="S28" s="12">
+      <c r="S28" s="10">
         <v>0.17399999999999999</v>
       </c>
       <c r="T28" s="2">
@@ -3356,10 +3356,10 @@
       <c r="C29" s="3">
         <v>0.78125</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="15">
         <v>33.361241</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="15">
         <v>78.016858999999997</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -3401,7 +3401,7 @@
       <c r="R29" s="2">
         <v>0</v>
       </c>
-      <c r="S29" s="12">
+      <c r="S29" s="10">
         <v>0.27900000000000003</v>
       </c>
       <c r="T29" s="2">
@@ -3436,10 +3436,10 @@
       <c r="C30" s="3">
         <v>0.26527777777664602</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="15">
         <v>33.361257000000002</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="15">
         <v>78.017196999999996</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -3481,7 +3481,7 @@
       <c r="R30" s="2">
         <v>0</v>
       </c>
-      <c r="S30" s="12">
+      <c r="S30" s="10">
         <v>0.38700000000000001</v>
       </c>
       <c r="T30" s="2">
@@ -3516,10 +3516,10 @@
       <c r="C31" s="3">
         <v>0.29166666666787933</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="15">
         <v>33.361257000000002</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="15">
         <v>78.017196999999996</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -3561,7 +3561,7 @@
       <c r="R31" s="2">
         <v>0</v>
       </c>
-      <c r="S31" s="12">
+      <c r="S31" s="10">
         <v>0.34899999999999998</v>
       </c>
       <c r="T31" s="2">
@@ -3593,6 +3593,12 @@
       <c r="C32" s="3">
         <v>0.32986111110949418</v>
       </c>
+      <c r="D32" s="17">
+        <v>33.336364600000003</v>
+      </c>
+      <c r="E32" s="17">
+        <v>78.034686500000007</v>
+      </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
       </c>
@@ -3632,7 +3638,7 @@
       <c r="R32" s="2">
         <v>4.3000000000000007</v>
       </c>
-      <c r="S32" s="12">
+      <c r="S32" s="10">
         <v>0.438</v>
       </c>
       <c r="T32" s="2">
@@ -3667,11 +3673,11 @@
       <c r="C33" s="3">
         <v>0.35416666666787933</v>
       </c>
-      <c r="D33" s="5">
-        <v>33.361069999999998</v>
-      </c>
-      <c r="E33" s="5">
-        <v>78.034217999999996</v>
+      <c r="D33" s="15">
+        <v>33.336203500000003</v>
+      </c>
+      <c r="E33" s="15">
+        <v>78.034176099999996</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -3712,7 +3718,7 @@
       <c r="R33" s="2">
         <v>0</v>
       </c>
-      <c r="S33" s="12">
+      <c r="S33" s="10">
         <v>0.25</v>
       </c>
       <c r="T33" s="2">
@@ -3747,10 +3753,10 @@
       <c r="C34" s="3">
         <v>0.36805555555474712</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="15">
         <v>33.336049000000003</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="15">
         <v>78.033703000000003</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -3792,7 +3798,7 @@
       <c r="R34" s="2">
         <v>0</v>
       </c>
-      <c r="S34" s="12">
+      <c r="S34" s="10">
         <v>0.182</v>
       </c>
       <c r="T34" s="2">
@@ -3827,10 +3833,10 @@
       <c r="C35" s="3">
         <v>0.38541666666787933</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="15">
         <v>33.335816999999999</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="15">
         <v>78.033253000000002</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -3872,7 +3878,7 @@
       <c r="R35" s="2">
         <v>2.4</v>
       </c>
-      <c r="S35" s="12">
+      <c r="S35" s="10">
         <v>0.45500000000000002</v>
       </c>
       <c r="T35" s="2">
@@ -3904,10 +3910,10 @@
       <c r="C36" s="3">
         <v>0.40277777777737361</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="15">
         <v>33.335507</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="15">
         <v>78.032390000000007</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -3949,7 +3955,7 @@
       <c r="R36" s="2">
         <v>3.4</v>
       </c>
-      <c r="S36" s="12">
+      <c r="S36" s="10">
         <v>0.48499999999999999</v>
       </c>
       <c r="T36" s="2">
@@ -3984,10 +3990,10 @@
       <c r="C37" s="3">
         <v>0.42013888889050582</v>
       </c>
-      <c r="D37" s="5">
-        <v>33.353909999999999</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="D37" s="15">
+        <v>33.335445900000003</v>
+      </c>
+      <c r="E37" s="15">
         <v>78.031874999999999</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -4029,7 +4035,7 @@
       <c r="R37" s="2">
         <v>2.4</v>
       </c>
-      <c r="S37" s="12">
+      <c r="S37" s="10">
         <v>0.94</v>
       </c>
       <c r="T37" s="2">
@@ -4064,10 +4070,10 @@
       <c r="C38" s="3">
         <v>0.49861111111022183</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="15">
         <v>33.329538999999997</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="15">
         <v>78.036614999999998</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -4109,7 +4115,7 @@
       <c r="R38" s="2">
         <v>6.2999999999999989</v>
       </c>
-      <c r="S38" s="12">
+      <c r="S38" s="10">
         <v>0.67500000000000004</v>
       </c>
       <c r="T38" s="2">
@@ -4144,10 +4150,10 @@
       <c r="C39" s="3">
         <v>0.52083333333212067</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="15">
         <v>33.329357000000002</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="15">
         <v>78.036531999999994</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -4189,7 +4195,7 @@
       <c r="R39" s="2">
         <v>3.9</v>
       </c>
-      <c r="S39" s="12">
+      <c r="S39" s="10">
         <v>0.23599999999999999</v>
       </c>
       <c r="T39" s="2">
@@ -4224,10 +4230,10 @@
       <c r="C40" s="3">
         <v>0.53125</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="15">
         <v>33.329318000000001</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="15">
         <v>78.036021000000005</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -4269,7 +4275,7 @@
       <c r="R40" s="2">
         <v>10.8</v>
       </c>
-      <c r="S40" s="12">
+      <c r="S40" s="10">
         <v>0.221</v>
       </c>
       <c r="T40" s="2">
@@ -4301,10 +4307,10 @@
       <c r="C41" s="3">
         <v>0.54166666666787933</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="15">
         <v>33.329295000000002</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="15">
         <v>78.035876999999999</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -4346,7 +4352,7 @@
       <c r="R41" s="2">
         <v>0</v>
       </c>
-      <c r="S41" s="12">
+      <c r="S41" s="10">
         <v>0.21099999999999999</v>
       </c>
       <c r="T41" s="2">
@@ -4378,10 +4384,10 @@
       <c r="C42" s="3">
         <v>0.5625</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="15">
         <v>33.329171000000002</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="15">
         <v>78.035585999999995</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -4423,7 +4429,7 @@
       <c r="R42" s="2">
         <v>2.9</v>
       </c>
-      <c r="S42" s="12">
+      <c r="S42" s="10">
         <v>0.20799999999999999</v>
       </c>
       <c r="T42" s="2">
@@ -4458,10 +4464,10 @@
       <c r="C43" s="3">
         <v>0.58333333333212067</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="15">
         <v>33.328783000000001</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="15">
         <v>78.034763999999996</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -4503,7 +4509,7 @@
       <c r="R43" s="2">
         <v>8.2999999999999989</v>
       </c>
-      <c r="S43" s="12">
+      <c r="S43" s="10">
         <v>0.878</v>
       </c>
       <c r="T43" s="2">
@@ -4538,11 +4544,11 @@
       <c r="C44" s="3">
         <v>0.64583333333212067</v>
       </c>
-      <c r="D44" s="5">
-        <v>33.326546999999998</v>
-      </c>
-      <c r="E44" s="5">
-        <v>78.038731999999996</v>
+      <c r="D44" s="15">
+        <v>33.326522300000001</v>
+      </c>
+      <c r="E44" s="15">
+        <v>78.038379599999999</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>66</v>
@@ -4583,7 +4589,7 @@
       <c r="R44" s="2">
         <v>5.1999999999999993</v>
       </c>
-      <c r="S44" s="12">
+      <c r="S44" s="10">
         <v>0.66700000000000004</v>
       </c>
       <c r="T44" s="2">
@@ -4615,11 +4621,11 @@
       <c r="C45" s="3">
         <v>0.66666666666787933</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="15">
         <v>33.326439000000001</v>
       </c>
-      <c r="E45" s="5">
-        <v>73.038055</v>
+      <c r="E45" s="15">
+        <v>78.038055</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>66</v>
@@ -4660,7 +4666,7 @@
       <c r="R45" s="2">
         <v>3.4</v>
       </c>
-      <c r="S45" s="12">
+      <c r="S45" s="10">
         <v>0.46400000000000002</v>
       </c>
       <c r="T45" s="2">
@@ -4692,10 +4698,10 @@
       <c r="C46" s="3">
         <v>0.67361111110949423</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="15">
         <v>33.326306000000002</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="15">
         <v>78.037642000000005</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -4737,7 +4743,7 @@
       <c r="R46" s="2">
         <v>0</v>
       </c>
-      <c r="S46" s="12">
+      <c r="S46" s="10">
         <v>0.317</v>
       </c>
       <c r="T46" s="2">
@@ -4769,10 +4775,10 @@
       <c r="C47" s="3">
         <v>0.40625</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="15">
         <v>33.326143000000002</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="15">
         <v>78.037305000000003</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -4814,7 +4820,7 @@
       <c r="R47" s="2">
         <v>0</v>
       </c>
-      <c r="S47" s="12">
+      <c r="S47" s="10">
         <v>0.2</v>
       </c>
       <c r="T47" s="2">
@@ -4846,10 +4852,10 @@
       <c r="C48" s="3">
         <v>0.42361111110949418</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="15">
         <v>33.325873999999999</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="15">
         <v>78.036923999999999</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -4891,7 +4897,7 @@
       <c r="R48" s="2">
         <v>15.9</v>
       </c>
-      <c r="S48" s="12">
+      <c r="S48" s="10">
         <v>1.1200000000000001</v>
       </c>
       <c r="T48" s="2">
@@ -4926,10 +4932,10 @@
       <c r="C49" s="3">
         <v>0.4375</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="15">
         <v>33.325814999999999</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="15">
         <v>78.036389999999997</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -4971,7 +4977,7 @@
       <c r="R49" s="2">
         <v>0</v>
       </c>
-      <c r="S49" s="12">
+      <c r="S49" s="10">
         <v>0.72699999999999998</v>
       </c>
       <c r="T49" s="2">
@@ -5003,10 +5009,10 @@
       <c r="C50" s="3">
         <v>0.44791666666787933</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="15">
         <v>33.323354999999999</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="15">
         <v>78.035546999999994</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -5048,7 +5054,7 @@
       <c r="R50" s="2">
         <v>7.5</v>
       </c>
-      <c r="S50" s="12">
+      <c r="S50" s="10">
         <v>1.119</v>
       </c>
       <c r="T50" s="2">
@@ -5083,10 +5089,10 @@
       <c r="C51" s="3">
         <v>0.46875</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="15">
         <v>33.323394</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="15">
         <v>78.035910000000001</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -5128,7 +5134,7 @@
       <c r="R51" s="2">
         <v>5.6</v>
       </c>
-      <c r="S51" s="12">
+      <c r="S51" s="10">
         <v>1.0940000000000001</v>
       </c>
       <c r="T51" s="2">
@@ -5160,10 +5166,10 @@
       <c r="C52" s="3">
         <v>0.47916666666787933</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="15">
         <v>33.323462999999997</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="15">
         <v>78.036344999999997</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -5205,7 +5211,7 @@
       <c r="R52" s="2">
         <v>0</v>
       </c>
-      <c r="S52" s="12">
+      <c r="S52" s="10">
         <v>0.28100000000000003</v>
       </c>
       <c r="T52" s="2">
@@ -5237,10 +5243,10 @@
       <c r="C53" s="3">
         <v>0.48958333333212067</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="15">
         <v>33.323501</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="15">
         <v>78.036608999999999</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -5282,7 +5288,7 @@
       <c r="R53" s="2">
         <v>6.1</v>
       </c>
-      <c r="S53" s="12">
+      <c r="S53" s="10">
         <v>0.42</v>
       </c>
       <c r="T53" s="2">
@@ -5314,11 +5320,11 @@
       <c r="C54" s="3">
         <v>0.5</v>
       </c>
-      <c r="D54" s="5">
-        <v>33.333626000000002</v>
-      </c>
-      <c r="E54" s="5">
-        <v>78.036979000000002</v>
+      <c r="D54" s="15">
+        <v>33.323560899999997</v>
+      </c>
+      <c r="E54" s="15">
+        <v>78.037082100000006</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>66</v>
@@ -5359,7 +5365,7 @@
       <c r="R54" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="S54" s="12">
+      <c r="S54" s="10">
         <v>0.46400000000000002</v>
       </c>
       <c r="T54" s="2">
@@ -5384,83 +5390,83 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+    <row r="55" spans="1:26" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="12">
         <v>45534</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="12">
         <v>0.52083333333212067</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="16">
         <v>33.324021000000002</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="16">
         <v>78.038394999999994</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="11">
         <v>0.4169447</v>
       </c>
-      <c r="H55" s="13">
-        <v>0</v>
-      </c>
-      <c r="I55" s="13">
-        <v>0</v>
-      </c>
-      <c r="J55" s="13">
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0</v>
+      </c>
+      <c r="J55" s="11">
         <v>35.479497635867638</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K55" s="11">
         <v>19.7</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L55" s="11">
         <v>15</v>
       </c>
-      <c r="M55" s="13">
+      <c r="M55" s="11">
         <v>67.5</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N55" s="11">
         <v>7.75</v>
       </c>
-      <c r="O55" s="13">
+      <c r="O55" s="11">
         <v>610.79999999999995</v>
       </c>
-      <c r="P55" s="13">
+      <c r="P55" s="11">
         <v>8429.0399999999991</v>
       </c>
-      <c r="Q55" s="13">
+      <c r="Q55" s="11">
         <v>7.6000000000000014</v>
       </c>
-      <c r="R55" s="13">
+      <c r="R55" s="11">
         <v>6.9</v>
       </c>
-      <c r="S55" s="16">
+      <c r="S55" s="13">
         <v>0.37</v>
       </c>
-      <c r="T55" s="13">
+      <c r="T55" s="11">
         <v>5</v>
       </c>
-      <c r="U55" s="13" t="s">
+      <c r="U55" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="V55" s="13" t="s">
+      <c r="V55" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="W55" s="13" t="s">
+      <c r="W55" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="X55" s="13">
+      <c r="X55" s="11">
         <v>1</v>
       </c>
-      <c r="Y55" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="13" t="s">
+      <c r="Y55" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5474,10 +5480,10 @@
       <c r="C56" s="3">
         <v>0.60416666666787933</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="15">
         <v>33.322873999999999</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="15">
         <v>78.038932000000003</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -5519,7 +5525,7 @@
       <c r="R56" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="S56" s="12">
+      <c r="S56" s="10">
         <v>0.44700000000000001</v>
       </c>
       <c r="T56" s="2">
@@ -5551,10 +5557,10 @@
       <c r="C57" s="3">
         <v>0.625</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="15">
         <v>33.322688999999997</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="15">
         <v>78.038629</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -5596,7 +5602,7 @@
       <c r="R57" s="2">
         <v>0</v>
       </c>
-      <c r="S57" s="12">
+      <c r="S57" s="10">
         <v>0.20399999999999999</v>
       </c>
       <c r="T57" s="2">
@@ -5631,10 +5637,10 @@
       <c r="C58" s="3">
         <v>0.64583333333212067</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="15">
         <v>33.322606999999998</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="15">
         <v>78.038336999999999</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -5676,7 +5682,7 @@
       <c r="R58" s="2">
         <v>0</v>
       </c>
-      <c r="S58" s="12">
+      <c r="S58" s="10">
         <v>0.27200000000000002</v>
       </c>
       <c r="T58" s="2">
@@ -5708,10 +5714,10 @@
       <c r="C59" s="3">
         <v>0.66666666666787933</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="15">
         <v>33.322361999999998</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="15">
         <v>78.037904999999995</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -5753,7 +5759,7 @@
       <c r="R59" s="2">
         <v>0.39999999999999991</v>
       </c>
-      <c r="S59" s="12">
+      <c r="S59" s="10">
         <v>0.17</v>
       </c>
       <c r="T59" s="2">
@@ -5788,10 +5794,10 @@
       <c r="C60" s="3">
         <v>0.6875</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="15">
         <v>33.322037999999999</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="15">
         <v>78.037374999999997</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -5833,7 +5839,7 @@
       <c r="R60" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="S60" s="12">
+      <c r="S60" s="10">
         <v>1.046</v>
       </c>
       <c r="T60" s="2">
@@ -5865,11 +5871,11 @@
       <c r="C61" s="3">
         <v>0.70138888889050577</v>
       </c>
-      <c r="D61" s="5">
-        <v>33.321859000000003</v>
-      </c>
-      <c r="E61" s="5">
-        <v>78.035404999999997</v>
+      <c r="D61" s="15">
+        <v>33.321869999999997</v>
+      </c>
+      <c r="E61" s="15">
+        <v>78.036757100000003</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>66</v>
@@ -5910,7 +5916,7 @@
       <c r="R61" s="2">
         <v>6.5</v>
       </c>
-      <c r="S61" s="12">
+      <c r="S61" s="10">
         <v>1.4079999999999999</v>
       </c>
       <c r="T61" s="2">
@@ -5942,10 +5948,10 @@
       <c r="C62" s="3">
         <v>0.34375</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="15">
         <v>33.248517</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="15">
         <v>78.059541999999993</v>
       </c>
       <c r="F62" s="2" t="s">
@@ -5987,7 +5993,7 @@
       <c r="R62" s="2">
         <v>1.4</v>
       </c>
-      <c r="S62" s="12">
+      <c r="S62" s="10">
         <v>0.997</v>
       </c>
       <c r="T62" s="2">
@@ -6019,10 +6025,10 @@
       <c r="C63" s="3">
         <v>0.36458333333212067</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="15">
         <v>33.248516000000002</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="15">
         <v>78.059386000000003</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -6064,7 +6070,7 @@
       <c r="R63" s="2">
         <v>14</v>
       </c>
-      <c r="S63" s="12">
+      <c r="S63" s="10">
         <v>0.878</v>
       </c>
       <c r="T63" s="2">
@@ -6096,10 +6102,10 @@
       <c r="C64" s="3">
         <v>0.375</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="15">
         <v>33.248432999999999</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="15">
         <v>78.059225999999995</v>
       </c>
       <c r="F64" s="2" t="s">
@@ -6141,7 +6147,7 @@
       <c r="R64" s="2">
         <v>15.5</v>
       </c>
-      <c r="S64" s="12">
+      <c r="S64" s="10">
         <v>0.96</v>
       </c>
       <c r="T64" s="2">
@@ -6173,10 +6179,10 @@
       <c r="C65" s="3">
         <v>0.39583333333212067</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="15">
         <v>33.248598999999999</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="15">
         <v>78.059031000000004</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -6218,7 +6224,7 @@
       <c r="R65" s="2">
         <v>12.1</v>
       </c>
-      <c r="S65" s="12">
+      <c r="S65" s="10">
         <v>1.2230000000000001</v>
       </c>
       <c r="T65" s="2">
@@ -6253,10 +6259,10 @@
       <c r="C66" s="3">
         <v>0.38541666666787933</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="15">
         <v>33.248406000000003</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="15">
         <v>78.05883</v>
       </c>
       <c r="F66" s="2" t="s">
@@ -6298,7 +6304,7 @@
       <c r="R66" s="2">
         <v>17.899999999999999</v>
       </c>
-      <c r="S66" s="12">
+      <c r="S66" s="10">
         <v>0.94099999999999995</v>
       </c>
       <c r="T66" s="2">
@@ -6333,10 +6339,10 @@
       <c r="C67" s="3">
         <v>0.40972222222262639</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="15">
         <v>33.248404999999998</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="15">
         <v>78.058368000000002</v>
       </c>
       <c r="F67" s="2" t="s">
@@ -6378,10 +6384,10 @@
       <c r="R67" s="2">
         <v>10.7</v>
       </c>
-      <c r="S67" s="12">
+      <c r="S67" s="10">
         <v>0.57499999999999996</v>
       </c>
-      <c r="T67" s="10"/>
+      <c r="T67" s="8"/>
       <c r="U67" s="2" t="s">
         <v>160</v>
       </c>
@@ -6411,10 +6417,10 @@
       <c r="C68" s="3">
         <v>0.44097222222262639</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="15">
         <v>33.249360000000003</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="15">
         <v>78.059689000000006</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -6456,7 +6462,7 @@
       <c r="R68" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S68" s="12">
+      <c r="S68" s="10">
         <v>0.67500000000000004</v>
       </c>
       <c r="T68" s="2">
@@ -6491,10 +6497,10 @@
       <c r="C69" s="3">
         <v>0.45833333333212067</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="15">
         <v>33.249321999999999</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="15">
         <v>78.059476000000004</v>
       </c>
       <c r="F69" s="2" t="s">
@@ -6536,7 +6542,7 @@
       <c r="R69" s="2">
         <v>0</v>
       </c>
-      <c r="S69" s="12">
+      <c r="S69" s="10">
         <v>0.753</v>
       </c>
       <c r="T69" s="2">
@@ -6568,10 +6574,10 @@
       <c r="C70" s="3">
         <v>0.46875</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="15">
         <v>33.249327999999998</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="15">
         <v>78.059316999999993</v>
       </c>
       <c r="F70" s="2" t="s">
@@ -6613,7 +6619,7 @@
       <c r="R70" s="2">
         <v>7.4</v>
       </c>
-      <c r="S70" s="12">
+      <c r="S70" s="10">
         <v>1.0549999999999999</v>
       </c>
       <c r="T70" s="2">
@@ -6648,10 +6654,10 @@
       <c r="C71" s="3">
         <v>0.47916666666787933</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="15">
         <v>33.249344999999998</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="15">
         <v>78.059190000000001</v>
       </c>
       <c r="F71" s="2" t="s">
@@ -6693,7 +6699,7 @@
       <c r="R71" s="2">
         <v>6.4</v>
       </c>
-      <c r="S71" s="12">
+      <c r="S71" s="10">
         <v>0.86099999999999999</v>
       </c>
       <c r="T71" s="2">
@@ -6725,10 +6731,10 @@
       <c r="C72" s="3">
         <v>0.48958333333212067</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="15">
         <v>33.249423999999998</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="15">
         <v>78.058739000000003</v>
       </c>
       <c r="F72" s="2" t="s">
@@ -6770,7 +6776,7 @@
       <c r="R72" s="2">
         <v>7.6</v>
       </c>
-      <c r="S72" s="12">
+      <c r="S72" s="10">
         <v>0.69</v>
       </c>
       <c r="T72" s="2">
@@ -6802,6 +6808,12 @@
       <c r="C73" s="3">
         <v>0.5</v>
       </c>
+      <c r="D73" s="17">
+        <v>33.249440999999997</v>
+      </c>
+      <c r="E73" s="17">
+        <v>78.058528999999993</v>
+      </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
       </c>
@@ -6841,7 +6853,7 @@
       <c r="R73" s="2">
         <v>1.6</v>
       </c>
-      <c r="S73" s="12">
+      <c r="S73" s="10">
         <v>0.442</v>
       </c>
       <c r="T73" s="2">
@@ -6876,10 +6888,10 @@
       <c r="C74" s="3">
         <v>0.61458333333212067</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="15">
         <v>33.254567999999999</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="15">
         <v>78.057182999999995</v>
       </c>
       <c r="F74" s="2" t="s">
@@ -6921,7 +6933,7 @@
       <c r="R74" s="2">
         <v>11.2</v>
       </c>
-      <c r="S74" s="12">
+      <c r="S74" s="10">
         <v>1.1870000000000001</v>
       </c>
       <c r="T74" s="2">
@@ -6953,11 +6965,11 @@
       <c r="C75" s="3">
         <v>0.59375</v>
       </c>
-      <c r="D75" s="5">
-        <v>33.254519000000002</v>
-      </c>
-      <c r="E75" s="5">
-        <v>78.050973999999997</v>
+      <c r="D75" s="15">
+        <v>33.254528700000002</v>
+      </c>
+      <c r="E75" s="15">
+        <v>78.056935100000004</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -6998,7 +7010,7 @@
       <c r="R75" s="2">
         <v>7.4</v>
       </c>
-      <c r="S75" s="12">
+      <c r="S75" s="10">
         <v>0.74399999999999999</v>
       </c>
       <c r="T75" s="2">
@@ -7030,10 +7042,10 @@
       <c r="C76" s="3">
         <v>0.64583333333212067</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="15">
         <v>33.254477999999999</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="15">
         <v>78.056582000000006</v>
       </c>
       <c r="F76" s="2" t="s">
@@ -7075,7 +7087,7 @@
       <c r="R76" s="2">
         <v>0</v>
       </c>
-      <c r="S76" s="12">
+      <c r="S76" s="10">
         <v>0.76</v>
       </c>
       <c r="T76" s="2">
@@ -7107,10 +7119,10 @@
       <c r="C77" s="3">
         <v>0.65625</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="15">
         <v>33.254513000000003</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="15">
         <v>78.056336999999999</v>
       </c>
       <c r="F77" s="2" t="s">
@@ -7152,7 +7164,7 @@
       <c r="R77" s="2">
         <v>6.2999999999999989</v>
       </c>
-      <c r="S77" s="12">
+      <c r="S77" s="10">
         <v>1.0660000000000001</v>
       </c>
       <c r="T77" s="2">
@@ -7187,10 +7199,10 @@
       <c r="C78" s="3">
         <v>0.69444444444525288</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="15">
         <v>33.254469999999998</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="15">
         <v>78.055856000000006</v>
       </c>
       <c r="F78" s="2" t="s">
@@ -7232,7 +7244,7 @@
       <c r="R78" s="2">
         <v>0</v>
       </c>
-      <c r="S78" s="12">
+      <c r="S78" s="10">
         <v>0.71099999999999997</v>
       </c>
       <c r="T78" s="2">
@@ -7267,10 +7279,10 @@
       <c r="C79" s="3">
         <v>0.70138888889050577</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="15">
         <v>33.254153000000002</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="15">
         <v>78.055674999999994</v>
       </c>
       <c r="F79" s="2" t="s">
@@ -7312,7 +7324,7 @@
       <c r="R79" s="2">
         <v>1</v>
       </c>
-      <c r="S79" s="12">
+      <c r="S79" s="10">
         <v>0.58599999999999997</v>
       </c>
       <c r="T79" s="2">
@@ -7347,10 +7359,10 @@
       <c r="C80" s="3">
         <v>0.32291666666787933</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="15">
         <v>33.260536999999999</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="15">
         <v>78.052555999999996</v>
       </c>
       <c r="F80" s="2" t="s">
@@ -7392,7 +7404,7 @@
       <c r="R80" s="2">
         <v>7.4</v>
       </c>
-      <c r="S80" s="12">
+      <c r="S80" s="10">
         <v>0.83</v>
       </c>
       <c r="T80" s="2">
@@ -7424,10 +7436,10 @@
       <c r="C81" s="3">
         <v>0.34375</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="15">
         <v>33.260168999999998</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="15">
         <v>78.052369999999996</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -7469,7 +7481,7 @@
       <c r="R81" s="2">
         <v>2.4</v>
       </c>
-      <c r="S81" s="12">
+      <c r="S81" s="10">
         <v>0.57399999999999995</v>
       </c>
       <c r="T81" s="2">
@@ -7501,10 +7513,10 @@
       <c r="C82" s="3">
         <v>0.34722222222262639</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="15">
         <v>33.259787000000003</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="15">
         <v>78.052160999999998</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -7546,7 +7558,7 @@
       <c r="R82" s="2">
         <v>7.6999999999999993</v>
       </c>
-      <c r="S82" s="12">
+      <c r="S82" s="10">
         <v>0.64</v>
       </c>
       <c r="T82" s="2">
@@ -7578,10 +7590,10 @@
       <c r="C83" s="3">
         <v>0.35416666666787933</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="15">
         <v>33.259504</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="15">
         <v>78.052009999999996</v>
       </c>
       <c r="F83" s="2" t="s">
@@ -7623,7 +7635,7 @@
       <c r="R83" s="2">
         <v>0</v>
       </c>
-      <c r="S83" s="12">
+      <c r="S83" s="10">
         <v>0.371</v>
       </c>
       <c r="T83" s="2">
@@ -7658,10 +7670,10 @@
       <c r="C84" s="3">
         <v>0.36458333333212067</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="15">
         <v>33.258940000000003</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="15">
         <v>78.051706999999993</v>
       </c>
       <c r="F84" s="2" t="s">
@@ -7703,7 +7715,7 @@
       <c r="R84" s="2">
         <v>0.30000000000000032</v>
       </c>
-      <c r="S84" s="12">
+      <c r="S84" s="10">
         <v>0.46</v>
       </c>
       <c r="T84" s="2">
@@ -7735,10 +7747,10 @@
       <c r="C85" s="3">
         <v>0.38194444444525288</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="15">
         <v>33.258358000000001</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="15">
         <v>78.051154999999994</v>
       </c>
       <c r="F85" s="2" t="s">
@@ -7780,7 +7792,7 @@
       <c r="R85" s="2">
         <v>0</v>
       </c>
-      <c r="S85" s="12">
+      <c r="S85" s="10">
         <v>0.65600000000000003</v>
       </c>
       <c r="T85" s="2">
@@ -7812,10 +7824,10 @@
       <c r="C86" s="3">
         <v>0.40625</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="15">
         <v>33.256261000000002</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="15">
         <v>78.050298999999995</v>
       </c>
       <c r="F86" s="2" t="s">
@@ -7857,7 +7869,7 @@
       <c r="R86" s="2">
         <v>11.3</v>
       </c>
-      <c r="S86" s="12">
+      <c r="S86" s="10">
         <v>0.70399999999999996</v>
       </c>
       <c r="T86" s="2">
@@ -7892,10 +7904,10 @@
       <c r="C87" s="3">
         <v>0.41666666666787933</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="15">
         <v>33.256346000000001</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="15">
         <v>78.050122000000002</v>
       </c>
       <c r="F87" s="2" t="s">
@@ -7937,7 +7949,7 @@
       <c r="R87" s="2">
         <v>5.7999999999999989</v>
       </c>
-      <c r="S87" s="12">
+      <c r="S87" s="10">
         <v>1.2749999999999999</v>
       </c>
       <c r="T87" s="2">
@@ -7959,80 +7971,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+    <row r="88" spans="1:26" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88" s="12">
         <v>45536</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C88" s="12">
         <v>0.42361111110949418</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="16">
         <v>33.256832000000003</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="16">
         <v>78.049839000000006</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G88" s="11">
         <v>0.34255839999999999</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88" s="11">
         <v>1</v>
       </c>
-      <c r="I88" s="13">
-        <v>0</v>
-      </c>
-      <c r="J88" s="13">
+      <c r="I88" s="11">
+        <v>0</v>
+      </c>
+      <c r="J88" s="11">
         <v>44.814737140680243</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K88" s="11">
         <v>14.4</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L88" s="11">
         <v>77</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M88" s="11">
         <v>56.27</v>
       </c>
-      <c r="N88" s="13">
+      <c r="N88" s="11">
         <v>9.1</v>
       </c>
-      <c r="O88" s="13">
+      <c r="O88" s="11">
         <v>5010</v>
       </c>
-      <c r="P88" s="13">
+      <c r="P88" s="11">
         <v>47595</v>
       </c>
-      <c r="Q88" s="13">
+      <c r="Q88" s="11">
         <v>0.20000000000000021</v>
       </c>
-      <c r="R88" s="13">
+      <c r="R88" s="11">
         <v>6.5</v>
       </c>
-      <c r="S88" s="16">
+      <c r="S88" s="13">
         <v>1.083</v>
       </c>
-      <c r="T88" s="13">
+      <c r="T88" s="11">
         <v>6</v>
       </c>
-      <c r="U88" s="13" t="s">
+      <c r="U88" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="V88" s="13" t="s">
+      <c r="V88" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="W88" s="13" t="s">
+      <c r="W88" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="X88" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="13">
+      <c r="X88" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="11">
         <v>0</v>
       </c>
     </row>
@@ -8046,10 +8058,10 @@
       <c r="C89" s="3">
         <v>0.43055555555474712</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="15">
         <v>33.257176999999999</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="15">
         <v>78.049691999999993</v>
       </c>
       <c r="F89" s="2" t="s">
@@ -8091,7 +8103,7 @@
       <c r="R89" s="2">
         <v>0</v>
       </c>
-      <c r="S89" s="12">
+      <c r="S89" s="10">
         <v>0.76300000000000001</v>
       </c>
       <c r="T89" s="2">
@@ -8123,10 +8135,10 @@
       <c r="C90" s="3">
         <v>0.4375</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="15">
         <v>33.257188999999997</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="15">
         <v>78.049487999999997</v>
       </c>
       <c r="F90" s="2" t="s">
@@ -8168,7 +8180,7 @@
       <c r="R90" s="2">
         <v>0</v>
       </c>
-      <c r="S90" s="12">
+      <c r="S90" s="10">
         <v>0.95499999999999996</v>
       </c>
       <c r="T90" s="2">
@@ -8200,10 +8212,10 @@
       <c r="C91" s="3">
         <v>0.44791666666787933</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="15">
         <v>33.257917999999997</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="15">
         <v>78.049436999999998</v>
       </c>
       <c r="F91" s="2" t="s">
@@ -8245,7 +8257,7 @@
       <c r="R91" s="2">
         <v>13.9</v>
       </c>
-      <c r="S91" s="12">
+      <c r="S91" s="10">
         <v>1.24</v>
       </c>
       <c r="T91" s="2">
@@ -11930,7 +11942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E773609-CAD2-4136-82CC-F9EF7F6894D9}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -11942,16 +11954,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>215</v>
       </c>
     </row>
@@ -11959,66 +11971,66 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>220</v>
       </c>
     </row>
@@ -12026,7 +12038,7 @@
       <c r="A9" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C9" t="s">
@@ -12037,24 +12049,24 @@
       <c r="A10" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -12062,10 +12074,10 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -12073,18 +12085,18 @@
       <c r="A13" t="s">
         <v>235</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C14" t="s">
@@ -12095,13 +12107,13 @@
       <c r="A15" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -12109,13 +12121,13 @@
       <c r="A16" t="s">
         <v>207</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -12123,27 +12135,27 @@
       <c r="A17" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>240</v>
       </c>
     </row>
@@ -12159,10 +12171,10 @@
       <c r="A20" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -12170,7 +12182,7 @@
       <c r="A21" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D21" t="s">
@@ -12181,7 +12193,7 @@
       <c r="A22" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C22" t="s">
@@ -12192,13 +12204,13 @@
       <c r="A23" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>224</v>
       </c>
     </row>

--- a/2.Data/EnvironmentalData.xlsx
+++ b/2.Data/EnvironmentalData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/evert_sprockel_wur_nl/Documents/5.Wageningen/7.Thesis/7.DataAnalysis/ThesisRAnalysis/2.Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/evert_sprockel_wur_nl/Documents/5.Wageningen/7.Thesis/7.DataAnalysis/TsoKarVegetationDataAnalysisR/2.Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="11_38AE230EADFB0BBDC981F51D93740FD6917D560E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26909E3C-D5B0-4E5E-9000-CD9E25202255}"/>
+  <xr:revisionPtr revIDLastSave="465" documentId="11_38AE230EADFB0BBDC981F51D93740FD6917D560E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D64AABC8-2A3D-423E-9919-1B9EB93EC580}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -882,7 +882,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -891,6 +890,7 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,11 +1123,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomRight" activeCell="S1" activeCellId="4" sqref="L1:L1048576 M1:M1048576 N1:N1048576 P1:P1048576 S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1249,10 +1249,10 @@
       <c r="C2" s="3">
         <v>0.71597222222044365</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>33.362797</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>78.013929000000005</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1329,10 +1329,10 @@
       <c r="C3" s="3">
         <v>0.27500000000145519</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>33.362717000000004</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>78.013930000000002</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2034,10 +2034,10 @@
       <c r="C12" s="12">
         <v>0.54513888889050577</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>33.3643</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>78.0137</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -2103,10 +2103,10 @@
       <c r="C13" s="3">
         <v>0.56597222222262644</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>33.364100000000001</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>78.013099999999994</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2183,10 +2183,10 @@
       <c r="C14" s="3">
         <v>0.29166666666787933</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>33.365900000000003</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>78.013499999999993</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -2260,10 +2260,10 @@
       <c r="C15" s="3">
         <v>0.29166666666787933</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>33.36551</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>78.012991</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -2340,10 +2340,10 @@
       <c r="C16" s="3">
         <v>0.37847222222262639</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>33.365276999999999</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>78.012558999999996</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2417,10 +2417,10 @@
       <c r="C17" s="3">
         <v>0.3875000000007276</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>33.365189000000001</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>78.012264999999999</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2494,10 +2494,10 @@
       <c r="C18" s="3">
         <v>0.41319444444525288</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>33.365020999999999</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>78.011865999999998</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -2574,10 +2574,10 @@
       <c r="C19" s="3">
         <v>0.42847222222189879</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>33.364702999999999</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>78.011644000000004</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2651,10 +2651,10 @@
       <c r="C20" s="3">
         <v>0.47916666666787933</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>33.367213999999997</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>78.012595000000005</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2728,10 +2728,10 @@
       <c r="C21" s="3">
         <v>0.5</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>33.367156000000001</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>78.012463999999994</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2805,10 +2805,10 @@
       <c r="C22" s="3">
         <v>0.52291666666496894</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>33.367097999999999</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>78.012235000000004</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2885,10 +2885,10 @@
       <c r="C23" s="3">
         <v>0.54166666666787933</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>33.366849999999999</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>78.011932999999999</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2965,10 +2965,10 @@
       <c r="C24" s="3">
         <v>0.56666666666569654</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>33.366729999999997</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="14">
         <v>78.011589000000001</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -3045,10 +3045,10 @@
       <c r="C25" s="3">
         <v>0.59027777777737356</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <v>33.366579000000002</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="14">
         <v>78.011266000000006</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -3125,10 +3125,10 @@
       <c r="C26" s="3">
         <v>0.72569444444525288</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>33.361778000000001</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="14">
         <v>78.017741999999998</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -3202,10 +3202,10 @@
       <c r="C27" s="3">
         <v>0.75</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <v>33.361705000000001</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="14">
         <v>78.017511999999996</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -3279,10 +3279,10 @@
       <c r="C28" s="3">
         <v>0.77083333333212067</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <v>33.361527000000002</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="14">
         <v>78.017326999999995</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -3356,10 +3356,10 @@
       <c r="C29" s="3">
         <v>0.78125</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>33.361241</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="14">
         <v>78.016858999999997</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -3436,10 +3436,10 @@
       <c r="C30" s="3">
         <v>0.26527777777664602</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <v>33.361257000000002</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="14">
         <v>78.017196999999996</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -3516,10 +3516,10 @@
       <c r="C31" s="3">
         <v>0.29166666666787933</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>33.361257000000002</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="14">
         <v>78.017196999999996</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -3593,10 +3593,10 @@
       <c r="C32" s="3">
         <v>0.32986111110949418</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="16">
         <v>33.336364600000003</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="16">
         <v>78.034686500000007</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -3673,10 +3673,10 @@
       <c r="C33" s="3">
         <v>0.35416666666787933</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>33.336203500000003</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <v>78.034176099999996</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -3753,10 +3753,10 @@
       <c r="C34" s="3">
         <v>0.36805555555474712</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>33.336049000000003</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <v>78.033703000000003</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -3833,10 +3833,10 @@
       <c r="C35" s="3">
         <v>0.38541666666787933</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>33.335816999999999</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="14">
         <v>78.033253000000002</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -3910,10 +3910,10 @@
       <c r="C36" s="3">
         <v>0.40277777777737361</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>33.335507</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="14">
         <v>78.032390000000007</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -3990,10 +3990,10 @@
       <c r="C37" s="3">
         <v>0.42013888889050582</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="14">
         <v>33.335445900000003</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="14">
         <v>78.031874999999999</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -4070,10 +4070,10 @@
       <c r="C38" s="3">
         <v>0.49861111111022183</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <v>33.329538999999997</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="14">
         <v>78.036614999999998</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -4150,10 +4150,10 @@
       <c r="C39" s="3">
         <v>0.52083333333212067</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>33.329357000000002</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="14">
         <v>78.036531999999994</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -4230,10 +4230,10 @@
       <c r="C40" s="3">
         <v>0.53125</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14">
         <v>33.329318000000001</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="14">
         <v>78.036021000000005</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -4307,10 +4307,10 @@
       <c r="C41" s="3">
         <v>0.54166666666787933</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14">
         <v>33.329295000000002</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="14">
         <v>78.035876999999999</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -4384,10 +4384,10 @@
       <c r="C42" s="3">
         <v>0.5625</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <v>33.329171000000002</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="14">
         <v>78.035585999999995</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -4464,10 +4464,10 @@
       <c r="C43" s="3">
         <v>0.58333333333212067</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>33.328783000000001</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="14">
         <v>78.034763999999996</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -4544,10 +4544,10 @@
       <c r="C44" s="3">
         <v>0.64583333333212067</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="14">
         <v>33.326522300000001</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="14">
         <v>78.038379599999999</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -4621,10 +4621,10 @@
       <c r="C45" s="3">
         <v>0.66666666666787933</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <v>33.326439000000001</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="14">
         <v>78.038055</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -4698,10 +4698,10 @@
       <c r="C46" s="3">
         <v>0.67361111110949423</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="14">
         <v>33.326306000000002</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="14">
         <v>78.037642000000005</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -4775,10 +4775,10 @@
       <c r="C47" s="3">
         <v>0.40625</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="14">
         <v>33.326143000000002</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="14">
         <v>78.037305000000003</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -4852,10 +4852,10 @@
       <c r="C48" s="3">
         <v>0.42361111110949418</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <v>33.325873999999999</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="14">
         <v>78.036923999999999</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -4932,10 +4932,10 @@
       <c r="C49" s="3">
         <v>0.4375</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="14">
         <v>33.325814999999999</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="14">
         <v>78.036389999999997</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -5009,10 +5009,10 @@
       <c r="C50" s="3">
         <v>0.44791666666787933</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="14">
         <v>33.323354999999999</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="14">
         <v>78.035546999999994</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -5089,10 +5089,10 @@
       <c r="C51" s="3">
         <v>0.46875</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="14">
         <v>33.323394</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="14">
         <v>78.035910000000001</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -5166,10 +5166,10 @@
       <c r="C52" s="3">
         <v>0.47916666666787933</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="14">
         <v>33.323462999999997</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="14">
         <v>78.036344999999997</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -5243,10 +5243,10 @@
       <c r="C53" s="3">
         <v>0.48958333333212067</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="14">
         <v>33.323501</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="14">
         <v>78.036608999999999</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -5320,10 +5320,10 @@
       <c r="C54" s="3">
         <v>0.5</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="14">
         <v>33.323560899999997</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="14">
         <v>78.037082100000006</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -5400,10 +5400,10 @@
       <c r="C55" s="12">
         <v>0.52083333333212067</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="15">
         <v>33.324021000000002</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="15">
         <v>78.038394999999994</v>
       </c>
       <c r="F55" s="11" t="s">
@@ -5480,10 +5480,10 @@
       <c r="C56" s="3">
         <v>0.60416666666787933</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="14">
         <v>33.322873999999999</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="14">
         <v>78.038932000000003</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -5557,10 +5557,10 @@
       <c r="C57" s="3">
         <v>0.625</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="14">
         <v>33.322688999999997</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="14">
         <v>78.038629</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -5637,10 +5637,10 @@
       <c r="C58" s="3">
         <v>0.64583333333212067</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="14">
         <v>33.322606999999998</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="14">
         <v>78.038336999999999</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -5714,10 +5714,10 @@
       <c r="C59" s="3">
         <v>0.66666666666787933</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="14">
         <v>33.322361999999998</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="14">
         <v>78.037904999999995</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -5794,10 +5794,10 @@
       <c r="C60" s="3">
         <v>0.6875</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="14">
         <v>33.322037999999999</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="14">
         <v>78.037374999999997</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -5871,10 +5871,10 @@
       <c r="C61" s="3">
         <v>0.70138888889050577</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="14">
         <v>33.321869999999997</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="14">
         <v>78.036757100000003</v>
       </c>
       <c r="F61" s="2" t="s">
@@ -5948,10 +5948,10 @@
       <c r="C62" s="3">
         <v>0.34375</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="14">
         <v>33.248517</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="14">
         <v>78.059541999999993</v>
       </c>
       <c r="F62" s="2" t="s">
@@ -6025,10 +6025,10 @@
       <c r="C63" s="3">
         <v>0.36458333333212067</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="14">
         <v>33.248516000000002</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="14">
         <v>78.059386000000003</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -6102,10 +6102,10 @@
       <c r="C64" s="3">
         <v>0.375</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="14">
         <v>33.248432999999999</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="14">
         <v>78.059225999999995</v>
       </c>
       <c r="F64" s="2" t="s">
@@ -6179,10 +6179,10 @@
       <c r="C65" s="3">
         <v>0.39583333333212067</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="14">
         <v>33.248598999999999</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="14">
         <v>78.059031000000004</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -6259,10 +6259,10 @@
       <c r="C66" s="3">
         <v>0.38541666666787933</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="14">
         <v>33.248406000000003</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="14">
         <v>78.05883</v>
       </c>
       <c r="F66" s="2" t="s">
@@ -6339,10 +6339,10 @@
       <c r="C67" s="3">
         <v>0.40972222222262639</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="14">
         <v>33.248404999999998</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="14">
         <v>78.058368000000002</v>
       </c>
       <c r="F67" s="2" t="s">
@@ -6417,10 +6417,10 @@
       <c r="C68" s="3">
         <v>0.44097222222262639</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="14">
         <v>33.249360000000003</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="14">
         <v>78.059689000000006</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -6497,10 +6497,10 @@
       <c r="C69" s="3">
         <v>0.45833333333212067</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="14">
         <v>33.249321999999999</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="14">
         <v>78.059476000000004</v>
       </c>
       <c r="F69" s="2" t="s">
@@ -6574,10 +6574,10 @@
       <c r="C70" s="3">
         <v>0.46875</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="14">
         <v>33.249327999999998</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="14">
         <v>78.059316999999993</v>
       </c>
       <c r="F70" s="2" t="s">
@@ -6654,10 +6654,10 @@
       <c r="C71" s="3">
         <v>0.47916666666787933</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="14">
         <v>33.249344999999998</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="14">
         <v>78.059190000000001</v>
       </c>
       <c r="F71" s="2" t="s">
@@ -6731,10 +6731,10 @@
       <c r="C72" s="3">
         <v>0.48958333333212067</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="14">
         <v>33.249423999999998</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="14">
         <v>78.058739000000003</v>
       </c>
       <c r="F72" s="2" t="s">
@@ -6808,10 +6808,10 @@
       <c r="C73" s="3">
         <v>0.5</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D73" s="16">
         <v>33.249440999999997</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="16">
         <v>78.058528999999993</v>
       </c>
       <c r="F73" s="2" t="s">
@@ -6888,10 +6888,10 @@
       <c r="C74" s="3">
         <v>0.61458333333212067</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="14">
         <v>33.254567999999999</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="14">
         <v>78.057182999999995</v>
       </c>
       <c r="F74" s="2" t="s">
@@ -6965,10 +6965,10 @@
       <c r="C75" s="3">
         <v>0.59375</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="14">
         <v>33.254528700000002</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="14">
         <v>78.056935100000004</v>
       </c>
       <c r="F75" s="2" t="s">
@@ -7042,10 +7042,10 @@
       <c r="C76" s="3">
         <v>0.64583333333212067</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="14">
         <v>33.254477999999999</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="14">
         <v>78.056582000000006</v>
       </c>
       <c r="F76" s="2" t="s">
@@ -7119,10 +7119,10 @@
       <c r="C77" s="3">
         <v>0.65625</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="14">
         <v>33.254513000000003</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="14">
         <v>78.056336999999999</v>
       </c>
       <c r="F77" s="2" t="s">
@@ -7199,10 +7199,10 @@
       <c r="C78" s="3">
         <v>0.69444444444525288</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="14">
         <v>33.254469999999998</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="14">
         <v>78.055856000000006</v>
       </c>
       <c r="F78" s="2" t="s">
@@ -7279,10 +7279,10 @@
       <c r="C79" s="3">
         <v>0.70138888889050577</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="14">
         <v>33.254153000000002</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="14">
         <v>78.055674999999994</v>
       </c>
       <c r="F79" s="2" t="s">
@@ -7359,10 +7359,10 @@
       <c r="C80" s="3">
         <v>0.32291666666787933</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="14">
         <v>33.260536999999999</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="14">
         <v>78.052555999999996</v>
       </c>
       <c r="F80" s="2" t="s">
@@ -7436,10 +7436,10 @@
       <c r="C81" s="3">
         <v>0.34375</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="14">
         <v>33.260168999999998</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="14">
         <v>78.052369999999996</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -7513,10 +7513,10 @@
       <c r="C82" s="3">
         <v>0.34722222222262639</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="14">
         <v>33.259787000000003</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="14">
         <v>78.052160999999998</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -7590,10 +7590,10 @@
       <c r="C83" s="3">
         <v>0.35416666666787933</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="14">
         <v>33.259504</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="14">
         <v>78.052009999999996</v>
       </c>
       <c r="F83" s="2" t="s">
@@ -7670,10 +7670,10 @@
       <c r="C84" s="3">
         <v>0.36458333333212067</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="14">
         <v>33.258940000000003</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="14">
         <v>78.051706999999993</v>
       </c>
       <c r="F84" s="2" t="s">
@@ -7747,10 +7747,10 @@
       <c r="C85" s="3">
         <v>0.38194444444525288</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="14">
         <v>33.258358000000001</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="14">
         <v>78.051154999999994</v>
       </c>
       <c r="F85" s="2" t="s">
@@ -7824,10 +7824,10 @@
       <c r="C86" s="3">
         <v>0.40625</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="14">
         <v>33.256261000000002</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="14">
         <v>78.050298999999995</v>
       </c>
       <c r="F86" s="2" t="s">
@@ -7904,10 +7904,10 @@
       <c r="C87" s="3">
         <v>0.41666666666787933</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D87" s="14">
         <v>33.256346000000001</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="14">
         <v>78.050122000000002</v>
       </c>
       <c r="F87" s="2" t="s">
@@ -7981,10 +7981,10 @@
       <c r="C88" s="12">
         <v>0.42361111110949418</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D88" s="15">
         <v>33.256832000000003</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E88" s="15">
         <v>78.049839000000006</v>
       </c>
       <c r="F88" s="11" t="s">
@@ -8058,10 +8058,10 @@
       <c r="C89" s="3">
         <v>0.43055555555474712</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D89" s="14">
         <v>33.257176999999999</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E89" s="14">
         <v>78.049691999999993</v>
       </c>
       <c r="F89" s="2" t="s">
@@ -8135,10 +8135,10 @@
       <c r="C90" s="3">
         <v>0.4375</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="14">
         <v>33.257188999999997</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="14">
         <v>78.049487999999997</v>
       </c>
       <c r="F90" s="2" t="s">
@@ -8212,10 +8212,10 @@
       <c r="C91" s="3">
         <v>0.44791666666787933</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="14">
         <v>33.257917999999997</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E91" s="14">
         <v>78.049436999999998</v>
       </c>
       <c r="F91" s="2" t="s">
@@ -11942,8 +11942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E773609-CAD2-4136-82CC-F9EF7F6894D9}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12088,7 +12088,7 @@
       <c r="B13" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="18" t="s">
         <v>212</v>
       </c>
     </row>
@@ -12138,7 +12138,7 @@
       <c r="B17" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="18" t="s">
         <v>230</v>
       </c>
       <c r="D17" s="4" t="s">
